--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F70F8-ADF6-4F04-9D40-F38D3EF13F4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D103F95A-B270-494E-9C67-D3CA95D29B06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="103">
   <si>
     <t>Instance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +335,14 @@
   </si>
   <si>
     <t>Avg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cplex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPS_Files/E226.SIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,10 +351,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,13 +376,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -387,13 +410,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -401,14 +421,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,17 +722,3847 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A16DD-C0DD-44B6-AFC1-609886FF1C21}">
+  <dimension ref="B2:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1571</v>
+      </c>
+      <c r="D3" s="3">
+        <v>821</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9799</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2262</v>
+      </c>
+      <c r="E4" s="3">
+        <v>21002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.587</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3">
+        <v>383</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>83</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>302</v>
+      </c>
+      <c r="D7" s="3">
+        <v>516</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4284</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>302</v>
+      </c>
+      <c r="D8" s="3">
+        <v>516</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>472</v>
+      </c>
+      <c r="D9" s="3">
+        <v>305</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2494</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>262</v>
+      </c>
+      <c r="D10" s="3">
+        <v>173</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3375</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1175</v>
+      </c>
+      <c r="D11" s="3">
+        <v>643</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5121</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3489</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2324</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>384</v>
+      </c>
+      <c r="D13" s="3">
+        <v>351</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3485</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>143</v>
+      </c>
+      <c r="D14" s="3">
+        <v>166</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1196</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>315</v>
+      </c>
+      <c r="D15" s="3">
+        <v>233</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1429</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>249</v>
+      </c>
+      <c r="D16" s="3">
+        <v>220</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2148</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>353</v>
+      </c>
+      <c r="D17" s="3">
+        <v>271</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1767</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2857</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1903</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20720</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3523</v>
+      </c>
+      <c r="D19" s="3">
+        <v>929</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10669</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5167</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2171</v>
+      </c>
+      <c r="E20" s="3">
+        <v>32417</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.798</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6184</v>
+      </c>
+      <c r="D21" s="3">
+        <v>415</v>
+      </c>
+      <c r="E21" s="3">
+        <v>37704</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>534</v>
+      </c>
+      <c r="D22" s="3">
+        <v>444</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3978</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1818</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1503</v>
+      </c>
+      <c r="E23" s="3">
+        <v>24646</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.536</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <v>688</v>
+      </c>
+      <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2409</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>854</v>
+      </c>
+      <c r="D25" s="3">
+        <v>524</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6227</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <v>614</v>
+      </c>
+      <c r="D26" s="3">
+        <v>497</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2310</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1026</v>
+      </c>
+      <c r="D27" s="3">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13404</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1677</v>
+      </c>
+      <c r="D28" s="3">
+        <v>627</v>
+      </c>
+      <c r="E28" s="3">
+        <v>9868</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10500</v>
+      </c>
+      <c r="D29" s="3">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3">
+        <v>129018</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.3440000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>13525</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="3">
+        <v>50284</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5.4420000000000002</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.2050000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1681</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1309</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6912</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5405</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2392</v>
+      </c>
+      <c r="E32" s="3">
+        <v>30877</v>
+      </c>
+      <c r="F32" s="4">
+        <v>6.1139999999999999</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5405</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2392</v>
+      </c>
+      <c r="E33" s="3">
+        <v>30877</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3">
+        <v>645</v>
+      </c>
+      <c r="D34" s="3">
+        <v>300</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5620</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3">
+        <v>946</v>
+      </c>
+      <c r="D35" s="3">
+        <v>440</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8252</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.183</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>301</v>
+      </c>
+      <c r="D36" s="3">
+        <v>140</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2612</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <v>142</v>
+      </c>
+      <c r="D37" s="3">
+        <v>174</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2269</v>
+      </c>
+      <c r="F37" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G37" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3">
+        <v>286</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G38" s="4">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <v>308</v>
+      </c>
+      <c r="D39" s="3">
+        <v>153</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1078</v>
+      </c>
+      <c r="F39" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G39" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9408</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3136</v>
+      </c>
+      <c r="E40" s="3">
+        <v>144848</v>
+      </c>
+      <c r="F40" s="4">
+        <v>5.4080000000000004</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1443</v>
+      </c>
+      <c r="D41" s="3">
+        <v>846</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9614</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1620</v>
+      </c>
+      <c r="D42" s="3">
+        <v>687</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3168</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2923</v>
+      </c>
+      <c r="D43" s="3">
+        <v>662</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13288</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1376</v>
+      </c>
+      <c r="D44" s="3">
+        <v>625</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6018</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>410</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5141</v>
+      </c>
+      <c r="F45" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4883</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2030</v>
+      </c>
+      <c r="E46" s="3">
+        <v>73152</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2188.029</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5.7839999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1988</v>
+      </c>
+      <c r="D47" s="3">
+        <v>940</v>
+      </c>
+      <c r="E47" s="3">
+        <v>14698</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2172</v>
+      </c>
+      <c r="D48" s="3">
+        <v>975</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13057</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3652</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1441</v>
+      </c>
+      <c r="E49" s="3">
+        <v>43167</v>
+      </c>
+      <c r="F49" s="8">
+        <v>12712.605</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2789</v>
+      </c>
+      <c r="D50" s="3">
+        <v>722</v>
+      </c>
+      <c r="E50" s="3">
+        <v>9126</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.498</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8856</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3192</v>
+      </c>
+      <c r="E51" s="3">
+        <v>38304</v>
+      </c>
+      <c r="F51" s="4">
+        <v>151.13999999999999</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="3">
+        <v>22275</v>
+      </c>
+      <c r="D52" s="3">
+        <v>6330</v>
+      </c>
+      <c r="E52" s="3">
+        <v>94950</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2075.136</v>
+      </c>
+      <c r="G52" s="4">
+        <v>17.212</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1632</v>
+      </c>
+      <c r="D53" s="3">
+        <v>912</v>
+      </c>
+      <c r="E53" s="3">
+        <v>7296</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="3">
+        <v>180</v>
+      </c>
+      <c r="D54" s="3">
+        <v>91</v>
+      </c>
+      <c r="E54" s="3">
+        <v>663</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G54" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3">
+        <v>103</v>
+      </c>
+      <c r="D55" s="3">
+        <v>105</v>
+      </c>
+      <c r="E55" s="3">
+        <v>280</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G55" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3">
+        <v>203</v>
+      </c>
+      <c r="D56" s="3">
+        <v>205</v>
+      </c>
+      <c r="E56" s="3">
+        <v>551</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="3">
+        <v>48</v>
+      </c>
+      <c r="D57" s="3">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3">
+        <v>130</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G57" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="3">
+        <v>48</v>
+      </c>
+      <c r="D58" s="3">
+        <v>50</v>
+      </c>
+      <c r="E58" s="3">
+        <v>118</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G58" s="4">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="3">
+        <v>500</v>
+      </c>
+      <c r="D59" s="3">
+        <v>471</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1554</v>
+      </c>
+      <c r="F59" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3">
+        <v>140</v>
+      </c>
+      <c r="D60" s="3">
+        <v>129</v>
+      </c>
+      <c r="E60" s="3">
+        <v>420</v>
+      </c>
+      <c r="F60" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G60" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="3">
+        <v>457</v>
+      </c>
+      <c r="D61" s="3">
+        <v>330</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2589</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="3">
+        <v>914</v>
+      </c>
+      <c r="D62" s="3">
+        <v>660</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5183</v>
+      </c>
+      <c r="F62" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1371</v>
+      </c>
+      <c r="D63" s="3">
+        <v>990</v>
+      </c>
+      <c r="E63" s="3">
+        <v>7777</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.187</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="3">
+        <v>358</v>
+      </c>
+      <c r="D64" s="3">
+        <v>388</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1426</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1169</v>
+      </c>
+      <c r="D65" s="3">
+        <v>490</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3182</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="3">
+        <v>760</v>
+      </c>
+      <c r="D66" s="3">
+        <v>77</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2388</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G66" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1350</v>
+      </c>
+      <c r="D67" s="3">
+        <v>147</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4316</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2750</v>
+      </c>
+      <c r="D68" s="3">
+        <v>397</v>
+      </c>
+      <c r="E68" s="3">
+        <v>8584</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.126</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="3">
+        <v>480</v>
+      </c>
+      <c r="D69" s="3">
+        <v>300</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1692</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1880</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1090</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6714</v>
+      </c>
+      <c r="F70" s="4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2480</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1480</v>
+      </c>
+      <c r="E71" s="3">
+        <v>8874</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D72" s="3">
+        <v>515</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4352</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="3">
+        <v>225</v>
+      </c>
+      <c r="D73" s="3">
+        <v>117</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1151</v>
+      </c>
+      <c r="F73" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G73" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="3">
+        <v>79</v>
+      </c>
+      <c r="D74" s="3">
+        <v>96</v>
+      </c>
+      <c r="E74" s="3">
+        <v>694</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D75" s="3">
+        <v>536</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3556</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G75" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2118</v>
+      </c>
+      <c r="D76" s="3">
+        <v>402</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6332</v>
+      </c>
+      <c r="F76" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1458</v>
+      </c>
+      <c r="D77" s="3">
+        <v>402</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4352</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4283</v>
+      </c>
+      <c r="D78" s="3">
+        <v>778</v>
+      </c>
+      <c r="E78" s="3">
+        <v>12802</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2387</v>
+      </c>
+      <c r="D79" s="3">
+        <v>778</v>
+      </c>
+      <c r="E79" s="3">
+        <v>7114</v>
+      </c>
+      <c r="F79" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="3">
+        <v>5427</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1151</v>
+      </c>
+      <c r="E80" s="3">
+        <v>16170</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2763</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1151</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8178</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="3">
+        <v>467</v>
+      </c>
+      <c r="D82" s="3">
+        <v>356</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3856</v>
+      </c>
+      <c r="F82" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1075</v>
+      </c>
+      <c r="D83" s="3">
+        <v>359</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3031</v>
+      </c>
+      <c r="F83" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1184</v>
+      </c>
+      <c r="D84" s="3">
+        <v>361</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3139</v>
+      </c>
+      <c r="F84" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1075</v>
+      </c>
+      <c r="D85" s="3">
+        <v>467</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3679</v>
+      </c>
+      <c r="F85" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="3">
+        <v>111</v>
+      </c>
+      <c r="D86" s="3">
+        <v>117</v>
+      </c>
+      <c r="E86" s="3">
+        <v>447</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G86" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2157</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8343</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="3">
+        <v>15695</v>
+      </c>
+      <c r="D88" s="3">
+        <v>16675</v>
+      </c>
+      <c r="E88" s="3">
+        <v>64875</v>
+      </c>
+      <c r="F88" s="4">
+        <v>21.466000000000001</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="3">
+        <v>8806</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27836</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="3">
+        <v>203</v>
+      </c>
+      <c r="D90" s="3">
+        <v>198</v>
+      </c>
+      <c r="E90" s="3">
+        <v>908</v>
+      </c>
+      <c r="F90" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2594</v>
+      </c>
+      <c r="D91" s="3">
+        <v>244</v>
+      </c>
+      <c r="E91" s="3">
+        <v>70215</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="3">
+        <v>8405</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1098</v>
+      </c>
+      <c r="E92" s="3">
+        <v>37474</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1.127</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="7">
+        <f>AVERAGE(C3:C92)</f>
+        <v>2524.2555555555555</v>
+      </c>
+      <c r="D93" s="7">
+        <f t="shared" ref="D93:G93" si="0">AVERAGE(D3:D92)</f>
+        <v>977.83333333333337</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" si="0"/>
+        <v>14763.055555555555</v>
+      </c>
+      <c r="F93" s="6">
+        <f>(AVERAGE(F3:F45)+AVERAGE(F47:F48)+AVERAGE(F50:F51)+AVERAGE(F53:F92))/87</f>
+        <v>0.89213636059877011</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="0"/>
+        <v>0.47525555555555521</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B148FCE2-31BC-4187-A18A-83DB8CC62976}">
+  <dimension ref="C4:J95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10">
+      <c r="C4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5501.85</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5501.85</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J5" s="6" t="b">
+        <f>D5=G5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>987224.19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>987224.19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.587</v>
+      </c>
+      <c r="J6" s="6" t="b">
+        <f t="shared" ref="J6:J69" si="0">D6=G6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>225494.96</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>225494.96</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-464.75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-464.75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-20239252.359999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-20239252.359999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J9" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10312115.939999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10312115.939999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J10" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-158.63</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-158.63</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J11" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>33592.49</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>33592.49</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1977.63</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1977.63</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J13" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1811.24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1811.24</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J14" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-335.21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-335.21</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J15" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-315.02</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-315.02</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J16" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1373.08</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1373.08</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J17" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1518.51</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1518.51</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J18" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2690.01</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2690.01</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J19" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-5.23</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-5.23</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J20" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2185196.7000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2185196.7000000002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J21" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6">
+        <v>122784.21</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G22" s="1">
+        <v>122784.21</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.798</v>
+      </c>
+      <c r="J22" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6">
+        <v>315.49</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>315.49</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="J23" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-1435.18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1435.18</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J24" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6">
+        <v>-987.29</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-987.29</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.536</v>
+      </c>
+      <c r="J25" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="11">
+        <v>-11.64</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10">
+        <v>-25.86</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6">
+        <v>-755.72</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-755.72</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J27" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="6">
+        <v>555679.56000000006</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="G28" s="1">
+        <v>555679.56000000006</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J28" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6">
+        <v>172791.07</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>172791.07</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J29" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-9146.3799999999992</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-9146.3799999999992</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J30" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="6">
+        <v>9146.3799999999992</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>9146.3799999999992</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="J31" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="6">
+        <v>-68464.289999999994</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-68464.289999999994</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="J32" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6">
+        <v>68464.289999999994</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>68464.289999999994</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5.4420000000000002</v>
+      </c>
+      <c r="J33" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6">
+        <v>-109585.74</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-109585.74</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="J34" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-72555248.129999995</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.376</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-72555248.129999995</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6.1139999999999999</v>
+      </c>
+      <c r="J35" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-4302260.26</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-4302260.26</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="J36" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6">
+        <v>-106870941.29000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-106870941.29000001</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J37" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-160834336.47999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-160834336.47999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="J38" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-47787811.810000002</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-47787811.810000002</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J39" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-896644.82</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-896644.82</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J40" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-1749.9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-1749.9</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J41" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-25.26</v>
+      </c>
+      <c r="E42" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-25.26</v>
+      </c>
+      <c r="H42" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J42" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1497185.17</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1497185.17</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5.4080000000000004</v>
+      </c>
+      <c r="J43" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-58063.74</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-58063.74</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="J44" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="6">
+        <v>320.62</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="G45" s="1">
+        <v>320.62</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J45" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6">
+        <v>14076036.49</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G46" s="1">
+        <v>14076036.49</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="J46" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-9380.76</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-9380.76</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="J47" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="6">
+        <v>-2581.14</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-2581.14</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J48" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="11">
+        <v>301.70999999999998</v>
+      </c>
+      <c r="E49" s="10">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13">
+        <v>1E+30</v>
+      </c>
+      <c r="H49" s="10">
+        <v>2188.029</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="6">
+        <v>-6113.14</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-6113.14</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J50" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-4497.28</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-4497.28</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="J51" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="11">
+        <v>-557.49</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13">
+        <v>1E+30</v>
+      </c>
+      <c r="H52" s="10">
+        <v>12712.605</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="11">
+        <v>-2720107.54</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="10">
+        <v>-2720107.53</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0.498</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6">
+        <v>522.89</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.226</v>
+      </c>
+      <c r="G54" s="1">
+        <v>522.89</v>
+      </c>
+      <c r="H54" s="1">
+        <v>151.13999999999999</v>
+      </c>
+      <c r="J54" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="11">
+        <v>1040.99</v>
+      </c>
+      <c r="E55" s="10">
+        <v>17.212</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="10">
+        <v>803</v>
+      </c>
+      <c r="H55" s="10">
+        <v>2075.136</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="6">
+        <v>203.5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G56" s="1">
+        <v>203.5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="J56" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-266.62</v>
+      </c>
+      <c r="E57" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-266.62</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J57" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="6">
+        <v>-52.2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-52.2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J58" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="6">
+        <v>-52.2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-52.2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J59" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="6">
+        <v>-64.58</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>-64.58</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J60" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="6">
+        <v>-70</v>
+      </c>
+      <c r="E61" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-70</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J61" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="6">
+        <v>-14753433.060000001</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-14753433.060000001</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J62" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="6">
+        <v>-2331389.8199999998</v>
+      </c>
+      <c r="E63" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-2331389.8199999998</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J63" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="6">
+        <v>18416.759999999998</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="G64" s="1">
+        <v>18416.759999999998</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J64" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="6">
+        <v>36660.26</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>36660.26</v>
+      </c>
+      <c r="H65" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J65" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="6">
+        <v>54901.25</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G66" s="1">
+        <v>54901.25</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="J66" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="C67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1878.12</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1878.12</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J67" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="6">
+        <v>904.3</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="G68" s="1">
+        <v>904.3</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J68" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="6">
+        <v>8.67</v>
+      </c>
+      <c r="E69" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J69" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="G70" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J70" s="6" t="b">
+        <f t="shared" ref="J70:J95" si="1">D70=G70</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="6">
+        <v>905</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G71" s="1">
+        <v>905</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="J71" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="C72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1412.25</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1412.25</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J72" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="C73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1724.81</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1724.81</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J73" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10">
+      <c r="C74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1424</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1424</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="J74" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="6">
+        <v>15711.6</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G75" s="1">
+        <v>15711.6</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J75" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10">
+      <c r="C76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="6">
+        <v>-76589.320000000007</v>
+      </c>
+      <c r="E76" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-76589.320000000007</v>
+      </c>
+      <c r="H76" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J76" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="C77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="6">
+        <v>-415.73</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G77" s="1">
+        <v>-415.73</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J77" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10">
+      <c r="C78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1208825346</v>
+      </c>
+      <c r="E78" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1208825346</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J78" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10">
+      <c r="C79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1793324.54</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1793324.54</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J79" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10">
+      <c r="C80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1798714.7</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1798714.7</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J80" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10">
+      <c r="C81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1909055.21</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1909055.21</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J81" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10">
+      <c r="C82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1920098.21</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1920098.21</v>
+      </c>
+      <c r="H82" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J82" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10">
+      <c r="C83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1470187.92</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1470187.92</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J83" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10">
+      <c r="C84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1489236.13</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1489236.13</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J84" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10">
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="6">
+        <v>-251.27</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="G85" s="1">
+        <v>-251.27</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J85" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10">
+      <c r="C86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1257.7</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1257.7</v>
+      </c>
+      <c r="H86" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J86" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10">
+      <c r="C87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1257.7</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1257.7</v>
+      </c>
+      <c r="H87" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J87" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10">
+      <c r="C88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1406.02</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1406.02</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J88" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10">
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="6">
+        <v>-41131.980000000003</v>
+      </c>
+      <c r="E89" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>-41131.980000000003</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J89" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="C90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="6">
+        <v>-39024.410000000003</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G90" s="1">
+        <v>-39024.410000000003</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J90" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="6">
+        <v>-39976.78</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="G91" s="1">
+        <v>-39976.78</v>
+      </c>
+      <c r="H91" s="1">
+        <v>21.466000000000001</v>
+      </c>
+      <c r="J91" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="6">
+        <v>458815.85</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="G92" s="1">
+        <v>458815.85</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="J92" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10">
+      <c r="C93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="6">
+        <v>129831.46</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G93" s="1">
+        <v>129831.46</v>
+      </c>
+      <c r="H93" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J93" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10">
+      <c r="C94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J94" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10">
+      <c r="C95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1.127</v>
+      </c>
+      <c r="J95" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -708,45 +4572,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -754,26 +4618,26 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1571</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>821</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>10400</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>5501.85</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.46899999999999997</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5">
+      <c r="H4" s="2"/>
+      <c r="I4" s="4">
         <v>5501.8458882867299</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.215</v>
       </c>
     </row>
@@ -781,26 +4645,26 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>9799</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2262</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>21002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>987224.19</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1.587</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5">
+      <c r="H5" s="2"/>
+      <c r="I5" s="4">
         <v>987224.19240909</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.22600000000000001</v>
       </c>
     </row>
@@ -808,26 +4672,26 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>97</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>56</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>383</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>225494.96</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2E-3</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5">
+      <c r="H6" s="2"/>
+      <c r="I6" s="4">
         <v>225494.96316238001</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
@@ -835,26 +4699,26 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>32</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>27</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>83</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>-464.75</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>1E-3</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4">
         <v>-464.753142857142</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>9.4E-2</v>
       </c>
     </row>
@@ -862,26 +4726,26 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>302</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>516</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>4284</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>-20239252.359999999</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5">
+      <c r="H8" s="2"/>
+      <c r="I8" s="4">
         <v>-20239252.355977099</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -889,26 +4753,26 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>302</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>516</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>4300</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>10312115.939999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5">
+      <c r="H9" s="2"/>
+      <c r="I9" s="4">
         <v>10312115.935089201</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>0.10199999999999999</v>
       </c>
     </row>
@@ -916,26 +4780,26 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>472</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>305</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>2494</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>-158.63</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5">
+      <c r="H10" s="2"/>
+      <c r="I10" s="4">
         <v>-158.628018450121</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.105</v>
       </c>
     </row>
@@ -943,26 +4807,26 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>262</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>173</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>3375</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>33592.49</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5">
+      <c r="H11" s="2"/>
+      <c r="I11" s="4">
         <v>33592.485807199999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -970,26 +4834,26 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1175</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>643</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>5121</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1977.63</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5">
+      <c r="H12" s="2"/>
+      <c r="I12" s="4">
         <v>1977.6295615228801</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>0.111</v>
       </c>
     </row>
@@ -997,26 +4861,26 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3489</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2324</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>13999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1811.24</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5">
+      <c r="H13" s="2"/>
+      <c r="I13" s="4">
         <v>1811.23654035854</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>0.157</v>
       </c>
     </row>
@@ -1024,26 +4888,26 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>384</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>351</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>3485</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>-335.21</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5">
+      <c r="H14" s="2"/>
+      <c r="I14" s="4">
         <v>-335.21356750712602</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.107</v>
       </c>
     </row>
@@ -1051,26 +4915,26 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>143</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>166</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1196</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>-315.02</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="5">
+      <c r="H15" s="2"/>
+      <c r="I15" s="4">
         <v>-315.01872801520199</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
@@ -1078,26 +4942,26 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>315</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>233</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>1429</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>1373.08</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="5">
+      <c r="H16" s="2"/>
+      <c r="I16" s="4">
         <v>1373.0803942084899</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
@@ -1105,26 +4969,26 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>249</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>220</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2148</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>1518.51</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="5">
+      <c r="H17" s="2"/>
+      <c r="I17" s="4">
         <v>1518.5098964881199</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -1132,26 +4996,26 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>353</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>271</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>1767</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>2690.01</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="5">
+      <c r="H18" s="2"/>
+      <c r="I18" s="4">
         <v>2690.0129137681502</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
@@ -1159,26 +5023,26 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>2857</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1903</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>20720</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>-5.23</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5">
+      <c r="H19" s="2"/>
+      <c r="I19" s="4">
         <v>-5.23</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>0.13600000000000001</v>
       </c>
     </row>
@@ -1186,26 +5050,26 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>3523</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>929</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>10669</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>2185196.7000000002</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.36199999999999999</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="5">
+      <c r="H20" s="2"/>
+      <c r="I20" s="4">
         <v>2185196.6988565698</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>0.14199999999999999</v>
       </c>
     </row>
@@ -1213,26 +5077,26 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>5167</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2171</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>32417</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>122784.21</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>3.798</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5">
+      <c r="H21" s="2"/>
+      <c r="I21" s="4">
         <v>122784.21081418901</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>0.79200000000000004</v>
       </c>
     </row>
@@ -1240,26 +5104,26 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>6184</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>415</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>37704</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>315.49</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.36299999999999999</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="5">
+      <c r="H22" s="2"/>
+      <c r="I22" s="4">
         <v>315.49166666666599</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>0.17699999999999999</v>
       </c>
     </row>
@@ -1267,26 +5131,26 @@
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>534</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>444</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>3978</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>-1435.18</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>0.08</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="5">
+      <c r="H23" s="2"/>
+      <c r="I23" s="4">
         <v>-1435.1779999999901</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>0.113</v>
       </c>
     </row>
@@ -1294,26 +5158,26 @@
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>1818</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>1503</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>24646</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>-987.29</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>1.536</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="5">
+      <c r="H24" s="2"/>
+      <c r="I24" s="4">
         <v>-987.29399999999896</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>0.23699999999999999</v>
       </c>
     </row>
@@ -1321,26 +5185,26 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>688</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>400</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>2409</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>-755.72</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="5">
+      <c r="H25" s="2"/>
+      <c r="I25" s="4">
         <v>-755.71522866977602</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -1348,26 +5212,26 @@
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>854</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>524</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>6227</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>555679.56000000006</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5">
+      <c r="H26" s="2"/>
+      <c r="I26" s="4">
         <v>555679.56481749599</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>0.105</v>
       </c>
     </row>
@@ -1375,26 +5239,26 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>614</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>497</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>2310</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>172791.07</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="5">
+      <c r="H27" s="2"/>
+      <c r="I27" s="4">
         <v>172791.065595611</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>0.10199999999999999</v>
       </c>
     </row>
@@ -1402,26 +5266,26 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>1026</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>24</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>13404</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>-9146.3799999999992</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="5">
+      <c r="H28" s="2"/>
+      <c r="I28" s="4">
         <v>-9146.3780924209295</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>0.111</v>
       </c>
     </row>
@@ -1429,26 +5293,26 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>1677</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>627</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>9868</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>9146.3799999999992</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>0.11</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="5">
+      <c r="H29" s="2"/>
+      <c r="I29" s="4">
         <v>9146.3780924209204</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>0.13700000000000001</v>
       </c>
     </row>
@@ -1456,26 +5320,26 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>10500</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>25</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>129018</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>-68464.289999999994</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>1.0149999999999999</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="5">
+      <c r="H30" s="2"/>
+      <c r="I30" s="4">
         <v>-68464.293293832001</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>1.3440000000000001</v>
       </c>
     </row>
@@ -1483,26 +5347,26 @@
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>13525</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>3000</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>50284</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>68464.289999999994</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>5.4420000000000002</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="5">
+      <c r="H31" s="2"/>
+      <c r="I31" s="4">
         <v>68464.293293832001</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>1.2050000000000001</v>
       </c>
     </row>
@@ -1510,26 +5374,26 @@
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>1681</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1309</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>6912</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>-109585.74</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="5">
+      <c r="H32" s="2"/>
+      <c r="I32" s="4">
         <v>-109585.736129278</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>0.109</v>
       </c>
     </row>
@@ -1537,26 +5401,26 @@
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>5405</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>2392</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>30877</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>-72555248.129999995</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>6.1139999999999999</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="5">
+      <c r="H33" s="2"/>
+      <c r="I33" s="4">
         <v>-72555248.129845902</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>0.376</v>
       </c>
     </row>
@@ -1564,26 +5428,26 @@
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>5405</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>2392</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>30877</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>-4302260.26</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>4.3559999999999999</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="5">
+      <c r="H34" s="2"/>
+      <c r="I34" s="4">
         <v>-4302260.2612065803</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>0.48</v>
       </c>
     </row>
@@ -1591,26 +5455,26 @@
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>645</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>5620</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>-106870941.29000001</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="5">
+      <c r="H35" s="2"/>
+      <c r="I35" s="4">
         <v>-106870941.293575</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>0.124</v>
       </c>
     </row>
@@ -1618,26 +5482,26 @@
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>946</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>440</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>8252</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>-160834336.47999999</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>0.183</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="5">
+      <c r="H36" s="2"/>
+      <c r="I36" s="4">
         <v>-160834336.48256299</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>0.215</v>
       </c>
     </row>
@@ -1645,26 +5509,26 @@
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>301</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>140</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>2612</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>-47787811.810000002</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="5">
+      <c r="H37" s="2"/>
+      <c r="I37" s="4">
         <v>-47787811.814712197</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>0.114</v>
       </c>
     </row>
@@ -1672,26 +5536,26 @@
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>142</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>174</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>2269</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>-896644.82</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5">
+      <c r="H38" s="2"/>
+      <c r="I38" s="4">
         <v>-896644.82186304498</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
@@ -1699,26 +5563,26 @@
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>41</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>43</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>286</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>-1749.9</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>1E-3</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="5">
+      <c r="H39" s="2"/>
+      <c r="I39" s="4">
         <v>-1749.9001299061999</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>9.4E-2</v>
       </c>
     </row>
@@ -1726,26 +5590,26 @@
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>308</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>153</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>1078</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>-25.26</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="5">
+      <c r="H40" s="2"/>
+      <c r="I40" s="4">
         <v>-25.26</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -1753,26 +5617,26 @@
       <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>9408</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>3136</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>144848</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>1497185.17</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>5.4080000000000004</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="5">
+      <c r="H41" s="2"/>
+      <c r="I41" s="4">
         <v>1497185.1664796399</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>0.80900000000000005</v>
       </c>
     </row>
@@ -1780,26 +5644,26 @@
       <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>1443</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>846</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>9614</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>-58063.74</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="5">
+      <c r="H42" s="2"/>
+      <c r="I42" s="4">
         <v>-58063.743701125801</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>0.121</v>
       </c>
     </row>
@@ -1807,26 +5671,26 @@
       <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1620</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>687</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>3168</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>320.62</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="5">
+      <c r="H43" s="2"/>
+      <c r="I43" s="4">
         <v>320.61972906313798</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>0.109</v>
       </c>
     </row>
@@ -1834,26 +5698,26 @@
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>2923</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>662</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>13288</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>14076036.49</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>0.35299999999999998</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="5">
+      <c r="H44" s="2"/>
+      <c r="I44" s="4">
         <v>14076036.487562699</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>0.21299999999999999</v>
       </c>
     </row>
@@ -1861,26 +5725,26 @@
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>1376</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>625</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>6018</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>-9380.76</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="5">
+      <c r="H45" s="2"/>
+      <c r="I45" s="4">
         <v>-9380.7552782357507</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>0.161</v>
       </c>
     </row>
@@ -1888,26 +5752,26 @@
       <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>1000</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>410</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>5141</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>-2581.14</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="5">
+      <c r="H46" s="2"/>
+      <c r="I46" s="4">
         <v>-2581.1392588612298</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>0.14399999999999999</v>
       </c>
     </row>
@@ -1915,26 +5779,26 @@
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>4883</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>2030</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>73152</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>2188.029</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="5">
+      <c r="H47" s="2"/>
+      <c r="I47" s="4">
         <v>301.710880537251</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>5.7839999999999998</v>
       </c>
     </row>
@@ -1942,26 +5806,26 @@
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>1988</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>940</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>14698</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>-6113.14</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="5">
+      <c r="H48" s="2"/>
+      <c r="I48" s="4">
         <v>-6113.1364655874804</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>0.249</v>
       </c>
     </row>
@@ -1969,26 +5833,26 @@
       <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>2172</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>975</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>13057</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>-4497.28</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>0.193</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="5">
+      <c r="H49" s="2"/>
+      <c r="I49" s="4">
         <v>-4497.2761882188697</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>0.16500000000000001</v>
       </c>
     </row>
@@ -1996,26 +5860,26 @@
       <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>3652</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>1441</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>43167</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>12712.605</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="5">
+      <c r="H50" s="2"/>
+      <c r="I50" s="4">
         <v>-557.48566460632298</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>0.73099999999999998</v>
       </c>
     </row>
@@ -2023,26 +5887,26 @@
       <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>2789</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>722</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>9126</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>-2720107.53</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>0.498</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="5">
+      <c r="H51" s="2"/>
+      <c r="I51" s="4">
         <v>-2720107.5390070402</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>0.36799999999999999</v>
       </c>
     </row>
@@ -2050,26 +5914,26 @@
       <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>8856</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>3192</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>38304</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>522.89</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <v>151.13999999999999</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="5">
+      <c r="H52" s="2"/>
+      <c r="I52" s="4">
         <v>522.89435055906597</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>1.226</v>
       </c>
     </row>
@@ -2077,26 +5941,26 @@
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>22275</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>6330</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>94950</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>2075.136</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="5">
+      <c r="H53" s="2"/>
+      <c r="I53" s="4">
         <v>1040.9940409585199</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>17.212</v>
       </c>
     </row>
@@ -2104,26 +5968,26 @@
       <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>1632</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>912</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>7296</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>203.5</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>1.2490000000000001</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="5">
+      <c r="H54" s="2"/>
+      <c r="I54" s="4">
         <v>203.5</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>0.14699999999999999</v>
       </c>
     </row>
@@ -2131,26 +5995,26 @@
       <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>180</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>91</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>663</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>-266.62</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>2E-3</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="5">
+      <c r="H55" s="2"/>
+      <c r="I55" s="4">
         <v>-266.61599999999902</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
@@ -2158,26 +6022,26 @@
       <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>103</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>105</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>280</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>-52.2</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>2E-3</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="5">
+      <c r="H56" s="2"/>
+      <c r="I56" s="4">
         <v>-52.202061211707203</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
@@ -2185,26 +6049,26 @@
       <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>203</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>205</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>551</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>-52.2</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="5">
+      <c r="H57" s="2"/>
+      <c r="I57" s="4">
         <v>-52.202061211707203</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
@@ -2212,26 +6076,26 @@
       <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>48</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>50</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>130</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>-64.58</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <v>1E-3</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="5">
+      <c r="H58" s="2"/>
+      <c r="I58" s="4">
         <v>-64.575077058564403</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
@@ -2239,26 +6103,26 @@
       <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>48</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>50</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>118</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="4">
         <v>-70</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <v>1E-3</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="5">
+      <c r="H59" s="2"/>
+      <c r="I59" s="4">
         <v>-70</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>9.4E-2</v>
       </c>
     </row>
@@ -2266,26 +6130,26 @@
       <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>500</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>471</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>1554</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>-14753433.060000001</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="5">
+      <c r="H60" s="2"/>
+      <c r="I60" s="4">
         <v>-14753433.0607685</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="4">
         <v>0.106</v>
       </c>
     </row>
@@ -2293,26 +6157,26 @@
       <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>140</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>129</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>420</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <v>-2331389.8199999998</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="5">
+      <c r="H61" s="2"/>
+      <c r="I61" s="4">
         <v>-2331389.82433098</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -2320,26 +6184,26 @@
       <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>457</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>330</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>2589</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>18416.759999999998</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="5">
+      <c r="H62" s="2"/>
+      <c r="I62" s="4">
         <v>18416.759028348901</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="4">
         <v>0.108</v>
       </c>
     </row>
@@ -2347,26 +6211,26 @@
       <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>914</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>660</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>5183</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <v>36660.26</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="5">
+      <c r="H63" s="2"/>
+      <c r="I63" s="4">
         <v>36660.2615649988</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>0.11600000000000001</v>
       </c>
     </row>
@@ -2374,26 +6238,26 @@
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>1371</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>990</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>7777</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>54901.25</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <v>0.187</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="5">
+      <c r="H64" s="2"/>
+      <c r="I64" s="4">
         <v>54901.2545497514</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="4">
         <v>0.13200000000000001</v>
       </c>
     </row>
@@ -2401,26 +6265,26 @@
       <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>358</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>388</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>1426</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <v>1878.12</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="5">
+      <c r="H65" s="2"/>
+      <c r="I65" s="4">
         <v>1878.1248227381</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -2428,26 +6292,26 @@
       <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>1169</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>490</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>3182</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>904.3</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="5">
+      <c r="H66" s="2"/>
+      <c r="I66" s="4">
         <v>904.29695380079102</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="4">
         <v>0.107</v>
       </c>
     </row>
@@ -2455,26 +6319,26 @@
       <c r="B67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>760</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>77</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>2388</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <v>8.67</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="5">
+      <c r="H67" s="2"/>
+      <c r="I67" s="4">
         <v>8.67</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
@@ -2482,26 +6346,26 @@
       <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>1350</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>147</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>4316</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>50.5</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="5">
+      <c r="H68" s="2"/>
+      <c r="I68" s="4">
         <v>50.500000078262303</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="4">
         <v>0.107</v>
       </c>
     </row>
@@ -2509,26 +6373,26 @@
       <c r="B69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>2750</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>397</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>8584</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <v>905</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>0.126</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="5">
+      <c r="H69" s="2"/>
+      <c r="I69" s="4">
         <v>904.99999992546395</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="4">
         <v>0.14899999999999999</v>
       </c>
     </row>
@@ -2536,26 +6400,26 @@
       <c r="B70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>480</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>300</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>1692</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>1412.25</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="5">
+      <c r="H70" s="2"/>
+      <c r="I70" s="4">
         <v>1412.25</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -2563,26 +6427,26 @@
       <c r="B71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>1880</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>1090</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>6714</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <v>1724.81</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="5">
+      <c r="H71" s="2"/>
+      <c r="I71" s="4">
         <v>1724.80714285714</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="4">
         <v>0.111</v>
       </c>
     </row>
@@ -2590,26 +6454,26 @@
       <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>2480</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>1480</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>8874</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>1424</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <v>0.11</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="5">
+      <c r="H72" s="2"/>
+      <c r="I72" s="4">
         <v>1424</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="4">
         <v>0.107</v>
       </c>
     </row>
@@ -2617,26 +6481,26 @@
       <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>1028</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>515</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>4352</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <v>15711.6</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="5">
+      <c r="H73" s="2"/>
+      <c r="I73" s="4">
         <v>15711.5999999999</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -2644,26 +6508,26 @@
       <c r="B74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>225</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>117</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>1151</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <v>-76589.320000000007</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="5">
+      <c r="H74" s="2"/>
+      <c r="I74" s="4">
         <v>-76589.318579185594</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -2671,26 +6535,26 @@
       <c r="B75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>79</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>96</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>694</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <v>-415.73</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <v>2E-3</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="5">
+      <c r="H75" s="2"/>
+      <c r="I75" s="4">
         <v>-415.73224074141899</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="4">
         <v>0.10199999999999999</v>
       </c>
     </row>
@@ -2698,26 +6562,26 @@
       <c r="B76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>1775</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>536</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>3556</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <v>1208825346</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="4">
         <v>0.04</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="5">
+      <c r="H76" s="2"/>
+      <c r="I76" s="4">
         <v>1208825346</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
@@ -2725,26 +6589,26 @@
       <c r="B77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>2118</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>402</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>6332</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <v>1793324.54</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="5">
+      <c r="H77" s="2"/>
+      <c r="I77" s="4">
         <v>1793324.5379703499</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="4">
         <v>0.107</v>
       </c>
     </row>
@@ -2752,26 +6616,26 @@
       <c r="B78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>1458</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>402</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>4352</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <v>1798714.7</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="5">
+      <c r="H78" s="2"/>
+      <c r="I78" s="4">
         <v>1798714.7004453901</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="4">
         <v>0.10299999999999999</v>
       </c>
     </row>
@@ -2779,26 +6643,26 @@
       <c r="B79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>4283</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>778</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>12802</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <v>1909055.21</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="5">
+      <c r="H79" s="2"/>
+      <c r="I79" s="4">
         <v>1909055.21138913</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="4">
         <v>0.122</v>
       </c>
     </row>
@@ -2806,26 +6670,26 @@
       <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>2387</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>778</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>7114</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <v>1920098.21</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="5">
+      <c r="H80" s="2"/>
+      <c r="I80" s="4">
         <v>1920098.2105346101</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="4">
         <v>0.11</v>
       </c>
     </row>
@@ -2833,26 +6697,26 @@
       <c r="B81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>5427</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>1151</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>16170</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <v>1470187.92</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="5">
+      <c r="H81" s="2"/>
+      <c r="I81" s="4">
         <v>1470187.91932926</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="4">
         <v>0.13200000000000001</v>
       </c>
     </row>
@@ -2860,26 +6724,26 @@
       <c r="B82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>2763</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>1151</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>8178</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <v>1489236.13</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="5">
+      <c r="H82" s="2"/>
+      <c r="I82" s="4">
         <v>1489236.1344061201</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="4">
         <v>0.121</v>
       </c>
     </row>
@@ -2887,26 +6751,26 @@
       <c r="B83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>467</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>356</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>3856</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <v>-251.27</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="5">
+      <c r="H83" s="2"/>
+      <c r="I83" s="4">
         <v>-251.26695119296201</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="4">
         <v>0.114</v>
       </c>
     </row>
@@ -2914,26 +6778,26 @@
       <c r="B84" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>1075</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>359</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>3031</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <v>1257.7</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="5">
+      <c r="H84" s="2"/>
+      <c r="I84" s="4">
         <v>1257.6994999999999</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="4">
         <v>0.10199999999999999</v>
       </c>
     </row>
@@ -2941,26 +6805,26 @@
       <c r="B85" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>1184</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>361</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>3139</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>1257.7</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="5">
+      <c r="H85" s="2"/>
+      <c r="I85" s="4">
         <v>1257.6994999999999</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -2968,26 +6832,26 @@
       <c r="B86" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>1075</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>467</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>3679</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <v>1406.02</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="5">
+      <c r="H86" s="2"/>
+      <c r="I86" s="4">
         <v>1406.0174999999999</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="4">
         <v>0.104</v>
       </c>
     </row>
@@ -2995,26 +6859,26 @@
       <c r="B87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>111</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>117</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>447</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <v>-41131.980000000003</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="4">
         <v>2E-3</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="5">
+      <c r="H87" s="2"/>
+      <c r="I87" s="4">
         <v>-41131.976219436401</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
@@ -3022,26 +6886,26 @@
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>2031</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>2157</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>8343</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <v>-39024.410000000003</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="4">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="5">
+      <c r="H88" s="2"/>
+      <c r="I88" s="4">
         <v>-39024.408537882002</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="4">
         <v>0.13700000000000001</v>
       </c>
     </row>
@@ -3049,26 +6913,26 @@
       <c r="B89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>15695</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>16675</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>64875</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <v>-39976.78</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="4">
         <v>21.466000000000001</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="5">
+      <c r="H89" s="2"/>
+      <c r="I89" s="4">
         <v>-39976.783943649498</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="4">
         <v>0.56699999999999995</v>
       </c>
     </row>
@@ -3076,26 +6940,26 @@
       <c r="B90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>8806</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>1000</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>27836</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <v>458815.85</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="4">
         <v>1.9670000000000001</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="5">
+      <c r="H90" s="2"/>
+      <c r="I90" s="4">
         <v>458815.84718561597</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="4">
         <v>2.4990000000000001</v>
       </c>
     </row>
@@ -3103,26 +6967,26 @@
       <c r="B91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>203</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>198</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>908</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <v>129831.46</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="5">
+      <c r="H91" s="2"/>
+      <c r="I91" s="4">
         <v>129831.46246136101</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="4">
         <v>0.11899999999999999</v>
       </c>
     </row>
@@ -3130,26 +6994,26 @@
       <c r="B92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>2594</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>244</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>70215</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <v>1.44</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="4">
         <v>0.1</v>
       </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="5">
+      <c r="H92" s="2"/>
+      <c r="I92" s="4">
         <v>1.44</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="4">
         <v>0.13800000000000001</v>
       </c>
     </row>
@@ -3157,26 +7021,26 @@
       <c r="B93" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>8405</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>1098</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>37474</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <v>1.3</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="4">
         <v>1.127</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="5">
+      <c r="H93" s="2"/>
+      <c r="I93" s="4">
         <v>1.3</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="4">
         <v>0.158</v>
       </c>
     </row>
@@ -3184,23 +7048,23 @@
       <c r="B94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7">
         <f>AVERAGE(C4:C93)</f>
         <v>2524.2555555555555</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <f t="shared" ref="D94:J94" si="0">AVERAGE(D4:D93)</f>
         <v>977.83333333333337</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="7">
         <f t="shared" si="0"/>
         <v>14763.055555555555</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="6">
         <f>(AVERAGE(G4:G46)+AVERAGE(G48:G49)+AVERAGE(G51:G52)+AVERAGE(G54:G93))/87</f>
         <v>0.89213636059877011</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="6">
         <f t="shared" si="0"/>
         <v>0.47525555555555521</v>
       </c>

--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D103F95A-B270-494E-9C67-D3CA95D29B06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926B41F-C174-472C-9213-6FB64F6AF10A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="106">
   <si>
     <t>Instance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>MPS_Files/E226.SIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,17 +444,21 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -725,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A16DD-C0DD-44B6-AFC1-609886FF1C21}">
   <dimension ref="B2:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -2593,1957 +2609,2997 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B148FCE2-31BC-4187-A18A-83DB8CC62976}">
-  <dimension ref="C4:J95"/>
+  <dimension ref="C3:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="O96" sqref="C4:O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10">
-      <c r="C4" s="9" t="s">
+    <row r="3" spans="3:15">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="15"/>
+      <c r="K4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="3:10">
+      <c r="L4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="3:15">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
+        <v>1571</v>
+      </c>
+      <c r="E5" s="3">
+        <v>821</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H5" s="6">
         <v>5501.85</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="1">
         <v>0.215</v>
       </c>
-      <c r="G5" s="1">
+      <c r="K5" s="1">
         <v>5501.85</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>0.46899999999999997</v>
       </c>
-      <c r="J5" s="6" t="b">
-        <f>D5=G5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10">
+      <c r="N5" s="1">
+        <v>5501.85</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
+        <v>9799</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2262</v>
+      </c>
+      <c r="F6" s="3">
+        <v>21002</v>
+      </c>
+      <c r="H6" s="6">
         <v>987224.19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K6" s="1">
         <v>987224.19</v>
       </c>
-      <c r="H6" s="1">
+      <c r="L6" s="1">
         <v>1.587</v>
       </c>
-      <c r="J6" s="6" t="b">
-        <f t="shared" ref="J6:J69" si="0">D6=G6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10">
+      <c r="N6" s="1">
+        <v>987224.19</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3">
+        <v>383</v>
+      </c>
+      <c r="H7" s="6">
         <v>225494.96</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="K7" s="1">
         <v>225494.96</v>
       </c>
-      <c r="H7" s="1">
+      <c r="L7" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
+      <c r="N7" s="1">
+        <v>225494.96</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>83</v>
+      </c>
+      <c r="H8" s="6">
         <v>-464.75</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="K8" s="1">
         <v>-464.75</v>
       </c>
-      <c r="H8" s="1">
+      <c r="L8" s="1">
         <v>1E-3</v>
       </c>
-      <c r="J8" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10">
+      <c r="N8" s="1">
+        <v>-464.75</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
+        <v>302</v>
+      </c>
+      <c r="E9" s="3">
+        <v>516</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4284</v>
+      </c>
+      <c r="H9" s="6">
         <v>-20239252.359999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="I9" s="1">
         <v>0.1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="K9" s="1">
         <v>-20239252.359999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="L9" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J9" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="N9" s="1">
+        <v>-20239252.359999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
+        <v>302</v>
+      </c>
+      <c r="E10" s="3">
+        <v>516</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H10" s="6">
         <v>10312115.939999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="K10" s="1">
         <v>10312115.939999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="L10" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J10" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="N10" s="1">
+        <v>10312115.939999999</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
+        <v>472</v>
+      </c>
+      <c r="E11" s="3">
+        <v>305</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2494</v>
+      </c>
+      <c r="H11" s="6">
         <v>-158.63</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="1">
         <v>0.105</v>
       </c>
-      <c r="G11" s="1">
+      <c r="K11" s="1">
         <v>-158.63</v>
       </c>
-      <c r="H11" s="1">
+      <c r="L11" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J11" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
+      <c r="N11" s="1">
+        <v>-158.63</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
+        <v>262</v>
+      </c>
+      <c r="E12" s="3">
+        <v>173</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3375</v>
+      </c>
+      <c r="H12" s="6">
         <v>33592.49</v>
       </c>
-      <c r="E12" s="1">
+      <c r="I12" s="1">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="K12" s="1">
         <v>33592.49</v>
       </c>
-      <c r="H12" s="1">
+      <c r="L12" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J12" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
+      <c r="N12" s="1">
+        <v>33592.49</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
+        <v>1175</v>
+      </c>
+      <c r="E13" s="3">
+        <v>643</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5121</v>
+      </c>
+      <c r="H13" s="6">
         <v>1977.63</v>
       </c>
-      <c r="E13" s="1">
+      <c r="I13" s="1">
         <v>0.111</v>
       </c>
-      <c r="G13" s="1">
+      <c r="K13" s="1">
         <v>1977.63</v>
       </c>
-      <c r="H13" s="1">
+      <c r="L13" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J13" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="N13" s="1">
+        <v>1977.63</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
+        <v>3489</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2324</v>
+      </c>
+      <c r="F14" s="3">
+        <v>13999</v>
+      </c>
+      <c r="H14" s="6">
         <v>1811.24</v>
       </c>
-      <c r="E14" s="1">
+      <c r="I14" s="1">
         <v>0.157</v>
       </c>
-      <c r="G14" s="1">
+      <c r="K14" s="1">
         <v>1811.24</v>
       </c>
-      <c r="H14" s="1">
+      <c r="L14" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="J14" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10">
+      <c r="N14" s="1">
+        <v>1811.24</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.65E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
+        <v>384</v>
+      </c>
+      <c r="E15" s="3">
+        <v>351</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3485</v>
+      </c>
+      <c r="H15" s="6">
         <v>-335.21</v>
       </c>
-      <c r="E15" s="1">
+      <c r="I15" s="1">
         <v>0.107</v>
       </c>
-      <c r="G15" s="1">
+      <c r="K15" s="1">
         <v>-335.21</v>
       </c>
-      <c r="H15" s="1">
+      <c r="L15" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J15" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
+      <c r="N15" s="1">
+        <v>-335.21</v>
+      </c>
+      <c r="O15" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
+        <v>143</v>
+      </c>
+      <c r="E16" s="3">
+        <v>166</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1196</v>
+      </c>
+      <c r="H16" s="6">
         <v>-315.02</v>
       </c>
-      <c r="E16" s="1">
+      <c r="I16" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="K16" s="1">
         <v>-315.02</v>
       </c>
-      <c r="H16" s="1">
+      <c r="L16" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+      <c r="N16" s="1">
+        <v>-315.02</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
+        <v>315</v>
+      </c>
+      <c r="E17" s="3">
+        <v>233</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1429</v>
+      </c>
+      <c r="H17" s="6">
         <v>1373.08</v>
       </c>
-      <c r="E17" s="1">
+      <c r="I17" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="K17" s="1">
         <v>1373.08</v>
       </c>
-      <c r="H17" s="1">
+      <c r="L17" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J17" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+      <c r="N17" s="1">
+        <v>1373.08</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
+        <v>249</v>
+      </c>
+      <c r="E18" s="3">
+        <v>220</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2148</v>
+      </c>
+      <c r="H18" s="6">
         <v>1518.51</v>
       </c>
-      <c r="E18" s="1">
+      <c r="I18" s="1">
         <v>0.1</v>
       </c>
-      <c r="G18" s="1">
+      <c r="K18" s="1">
         <v>1518.51</v>
       </c>
-      <c r="H18" s="1">
+      <c r="L18" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J18" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+      <c r="N18" s="1">
+        <v>1518.51</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
+        <v>353</v>
+      </c>
+      <c r="E19" s="3">
+        <v>271</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1767</v>
+      </c>
+      <c r="H19" s="6">
         <v>2690.01</v>
       </c>
-      <c r="E19" s="1">
+      <c r="I19" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="K19" s="1">
         <v>2690.01</v>
       </c>
-      <c r="H19" s="1">
+      <c r="L19" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J19" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+      <c r="N19" s="1">
+        <v>2690.01</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
+        <v>2857</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1903</v>
+      </c>
+      <c r="F20" s="3">
+        <v>20720</v>
+      </c>
+      <c r="H20" s="6">
         <v>-5.23</v>
       </c>
-      <c r="E20" s="1">
+      <c r="I20" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="G20" s="1">
+      <c r="K20" s="1">
         <v>-5.23</v>
       </c>
-      <c r="H20" s="1">
+      <c r="L20" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="J20" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+      <c r="N20" s="1">
+        <v>-5.23</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
+        <v>3523</v>
+      </c>
+      <c r="E21" s="3">
+        <v>929</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10669</v>
+      </c>
+      <c r="H21" s="6">
         <v>2185196.7000000002</v>
       </c>
-      <c r="E21" s="1">
+      <c r="I21" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="K21" s="1">
         <v>2185196.7000000002</v>
       </c>
-      <c r="H21" s="1">
+      <c r="L21" s="1">
         <v>0.36199999999999999</v>
       </c>
-      <c r="J21" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+      <c r="N21" s="1">
+        <v>2185196.7000000002</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
+        <v>5167</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2171</v>
+      </c>
+      <c r="F22" s="3">
+        <v>32417</v>
+      </c>
+      <c r="H22" s="6">
         <v>122784.21</v>
       </c>
-      <c r="E22" s="1">
+      <c r="I22" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="G22" s="1">
+      <c r="K22" s="1">
         <v>122784.21</v>
       </c>
-      <c r="H22" s="1">
+      <c r="L22" s="1">
         <v>3.798</v>
       </c>
-      <c r="J22" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
+      <c r="N22" s="1">
+        <v>122784.21</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.68810000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
+        <v>6184</v>
+      </c>
+      <c r="E23" s="3">
+        <v>415</v>
+      </c>
+      <c r="F23" s="3">
+        <v>37704</v>
+      </c>
+      <c r="H23" s="6">
         <v>315.49</v>
       </c>
-      <c r="E23" s="1">
+      <c r="I23" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="K23" s="1">
         <v>315.49</v>
       </c>
-      <c r="H23" s="1">
+      <c r="L23" s="1">
         <v>0.36299999999999999</v>
       </c>
-      <c r="J23" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
+      <c r="N23" s="1">
+        <v>315.49</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.77490000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
+        <v>534</v>
+      </c>
+      <c r="E24" s="3">
+        <v>444</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3978</v>
+      </c>
+      <c r="H24" s="6">
         <v>-1435.18</v>
       </c>
-      <c r="E24" s="1">
+      <c r="I24" s="1">
         <v>0.113</v>
       </c>
-      <c r="G24" s="1">
+      <c r="K24" s="1">
         <v>-1435.18</v>
       </c>
-      <c r="H24" s="1">
+      <c r="L24" s="1">
         <v>0.08</v>
       </c>
-      <c r="J24" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+      <c r="N24" s="1">
+        <v>-1435.18</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
+        <v>1818</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1503</v>
+      </c>
+      <c r="F25" s="3">
+        <v>24646</v>
+      </c>
+      <c r="H25" s="6">
         <v>-987.29</v>
       </c>
-      <c r="E25" s="1">
+      <c r="I25" s="1">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G25" s="1">
+      <c r="K25" s="1">
         <v>-987.29</v>
       </c>
-      <c r="H25" s="1">
+      <c r="L25" s="1">
         <v>1.536</v>
       </c>
-      <c r="J25" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="10" t="s">
+      <c r="N25" s="1">
+        <v>-987.29</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.13930000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="C26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26">
+        <v>258</v>
+      </c>
+      <c r="E26">
+        <v>159</v>
+      </c>
+      <c r="F26">
+        <v>2300</v>
+      </c>
+      <c r="H26" s="10">
         <v>-11.64</v>
       </c>
-      <c r="E26" s="10">
+      <c r="I26" s="9">
         <v>0.09</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10">
+      <c r="J26" s="11"/>
+      <c r="K26" s="9">
         <v>-25.86</v>
       </c>
-      <c r="H26" s="10">
+      <c r="L26" s="9">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="M26" s="11"/>
+      <c r="N26" s="1">
+        <v>-11.64</v>
+      </c>
+      <c r="O26" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
+        <v>688</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2409</v>
+      </c>
+      <c r="H27" s="6">
         <v>-755.72</v>
       </c>
-      <c r="E27" s="1">
+      <c r="I27" s="1">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G27" s="1">
+      <c r="K27" s="1">
         <v>-755.72</v>
       </c>
-      <c r="H27" s="1">
+      <c r="L27" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J27" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
+      <c r="N27" s="1">
+        <v>-755.72</v>
+      </c>
+      <c r="O27" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
+        <v>854</v>
+      </c>
+      <c r="E28" s="3">
+        <v>524</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6227</v>
+      </c>
+      <c r="H28" s="6">
         <v>555679.56000000006</v>
       </c>
-      <c r="E28" s="1">
+      <c r="I28" s="1">
         <v>0.105</v>
       </c>
-      <c r="G28" s="1">
+      <c r="K28" s="1">
         <v>555679.56000000006</v>
       </c>
-      <c r="H28" s="1">
+      <c r="L28" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J28" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
+      <c r="N28" s="1">
+        <v>555679.56000000006</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
+        <v>614</v>
+      </c>
+      <c r="E29" s="3">
+        <v>497</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2310</v>
+      </c>
+      <c r="H29" s="6">
         <v>172791.07</v>
       </c>
-      <c r="E29" s="1">
+      <c r="I29" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G29" s="1">
+      <c r="K29" s="1">
         <v>172791.07</v>
       </c>
-      <c r="H29" s="1">
+      <c r="L29" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J29" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+      <c r="N29" s="1">
+        <v>172791.07</v>
+      </c>
+      <c r="O29" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
+        <v>1026</v>
+      </c>
+      <c r="E30" s="3">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3">
+        <v>13404</v>
+      </c>
+      <c r="H30" s="6">
         <v>-9146.3799999999992</v>
       </c>
-      <c r="E30" s="1">
+      <c r="I30" s="1">
         <v>0.111</v>
       </c>
-      <c r="G30" s="1">
+      <c r="K30" s="1">
         <v>-9146.3799999999992</v>
       </c>
-      <c r="H30" s="1">
+      <c r="L30" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="J30" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
+      <c r="N30" s="1">
+        <v>-9146.3799999999992</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
+        <v>1677</v>
+      </c>
+      <c r="E31" s="3">
+        <v>627</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9868</v>
+      </c>
+      <c r="H31" s="6">
         <v>9146.3799999999992</v>
       </c>
-      <c r="E31" s="1">
+      <c r="I31" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G31" s="1">
+      <c r="K31" s="1">
         <v>9146.3799999999992</v>
       </c>
-      <c r="H31" s="1">
+      <c r="L31" s="1">
         <v>0.11</v>
       </c>
-      <c r="J31" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
+      <c r="N31" s="1">
+        <v>9146.3799999999992</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3">
+        <v>129018</v>
+      </c>
+      <c r="H32" s="6">
         <v>-68464.289999999994</v>
       </c>
-      <c r="E32" s="1">
+      <c r="I32" s="1">
         <v>1.3440000000000001</v>
       </c>
-      <c r="G32" s="1">
+      <c r="K32" s="1">
         <v>-68464.289999999994</v>
       </c>
-      <c r="H32" s="1">
+      <c r="L32" s="1">
         <v>1.0149999999999999</v>
       </c>
-      <c r="J32" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
+      <c r="N32" s="1">
+        <v>-68464.289999999994</v>
+      </c>
+      <c r="O32" s="1">
+        <v>9.8199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="3">
+        <v>13525</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>50284</v>
+      </c>
+      <c r="H33" s="6">
         <v>68464.289999999994</v>
       </c>
-      <c r="E33" s="1">
+      <c r="I33" s="1">
         <v>1.2050000000000001</v>
       </c>
-      <c r="G33" s="1">
+      <c r="K33" s="1">
         <v>68464.289999999994</v>
       </c>
-      <c r="H33" s="1">
+      <c r="L33" s="1">
         <v>5.4420000000000002</v>
       </c>
-      <c r="J33" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
+      <c r="N33" s="1">
+        <v>68464.289999999994</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.1112</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="3">
+        <v>1681</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1309</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6912</v>
+      </c>
+      <c r="H34" s="6">
         <v>-109585.74</v>
       </c>
-      <c r="E34" s="1">
+      <c r="I34" s="1">
         <v>0.109</v>
       </c>
-      <c r="G34" s="1">
+      <c r="K34" s="1">
         <v>-109585.74</v>
       </c>
-      <c r="H34" s="1">
+      <c r="L34" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J34" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
+      <c r="N34" s="1">
+        <v>-109585.74</v>
+      </c>
+      <c r="O34" s="1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
+        <v>5405</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2392</v>
+      </c>
+      <c r="F35" s="3">
+        <v>30877</v>
+      </c>
+      <c r="H35" s="6">
         <v>-72555248.129999995</v>
       </c>
-      <c r="E35" s="1">
+      <c r="I35" s="1">
         <v>0.376</v>
       </c>
-      <c r="G35" s="1">
+      <c r="K35" s="1">
         <v>-72555248.129999995</v>
       </c>
-      <c r="H35" s="1">
+      <c r="L35" s="1">
         <v>6.1139999999999999</v>
       </c>
-      <c r="J35" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
+      <c r="N35" s="1">
+        <v>-72555248.129999995</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.1555</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
       <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
+        <v>5405</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2392</v>
+      </c>
+      <c r="F36" s="3">
+        <v>30877</v>
+      </c>
+      <c r="H36" s="6">
         <v>-4302260.26</v>
       </c>
-      <c r="E36" s="1">
+      <c r="I36" s="1">
         <v>0.48</v>
       </c>
-      <c r="G36" s="1">
+      <c r="K36" s="1">
         <v>-4302260.26</v>
       </c>
-      <c r="H36" s="1">
+      <c r="L36" s="1">
         <v>4.3559999999999999</v>
       </c>
-      <c r="J36" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
+      <c r="N36" s="1">
+        <v>-4302260.26</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.38279999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
+        <v>645</v>
+      </c>
+      <c r="E37" s="3">
+        <v>300</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5620</v>
+      </c>
+      <c r="H37" s="6">
         <v>-106870941.29000001</v>
       </c>
-      <c r="E37" s="1">
+      <c r="I37" s="1">
         <v>0.124</v>
       </c>
-      <c r="G37" s="1">
+      <c r="K37" s="1">
         <v>-106870941.29000001</v>
       </c>
-      <c r="H37" s="1">
+      <c r="L37" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J37" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10">
+      <c r="N37" s="1">
+        <v>-106870941.29000001</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
       <c r="C38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
+        <v>946</v>
+      </c>
+      <c r="E38" s="3">
+        <v>440</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8252</v>
+      </c>
+      <c r="H38" s="6">
         <v>-160834336.47999999</v>
       </c>
-      <c r="E38" s="1">
+      <c r="I38" s="1">
         <v>0.215</v>
       </c>
-      <c r="G38" s="1">
+      <c r="K38" s="1">
         <v>-160834336.47999999</v>
       </c>
-      <c r="H38" s="1">
+      <c r="L38" s="1">
         <v>0.183</v>
       </c>
-      <c r="J38" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
+      <c r="N38" s="1">
+        <v>-160834336.47999999</v>
+      </c>
+      <c r="O38" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15">
       <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="3">
+        <v>301</v>
+      </c>
+      <c r="E39" s="3">
+        <v>140</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2612</v>
+      </c>
+      <c r="H39" s="6">
         <v>-47787811.810000002</v>
       </c>
-      <c r="E39" s="1">
+      <c r="I39" s="1">
         <v>0.114</v>
       </c>
-      <c r="G39" s="1">
+      <c r="K39" s="1">
         <v>-47787811.810000002</v>
       </c>
-      <c r="H39" s="1">
+      <c r="L39" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="J39" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
+      <c r="N39" s="1">
+        <v>-47787811.810000002</v>
+      </c>
+      <c r="O39" s="1">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15">
       <c r="C40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="3">
+        <v>142</v>
+      </c>
+      <c r="E40" s="3">
+        <v>174</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2269</v>
+      </c>
+      <c r="H40" s="6">
         <v>-896644.82</v>
       </c>
-      <c r="E40" s="1">
+      <c r="I40" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="K40" s="1">
         <v>-896644.82</v>
       </c>
-      <c r="H40" s="1">
+      <c r="L40" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J40" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
+      <c r="N40" s="1">
+        <v>-896644.82</v>
+      </c>
+      <c r="O40" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
       <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="3">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43</v>
+      </c>
+      <c r="F41" s="3">
+        <v>286</v>
+      </c>
+      <c r="H41" s="6">
         <v>-1749.9</v>
       </c>
-      <c r="E41" s="1">
+      <c r="I41" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="G41" s="1">
+      <c r="K41" s="1">
         <v>-1749.9</v>
       </c>
-      <c r="H41" s="1">
+      <c r="L41" s="1">
         <v>1E-3</v>
       </c>
-      <c r="J41" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
+      <c r="N41" s="1">
+        <v>-1749.9</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15">
       <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="3">
+        <v>308</v>
+      </c>
+      <c r="E42" s="3">
+        <v>153</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1078</v>
+      </c>
+      <c r="H42" s="6">
         <v>-25.26</v>
       </c>
-      <c r="E42" s="1">
+      <c r="I42" s="1">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G42" s="1">
+      <c r="K42" s="1">
         <v>-25.26</v>
       </c>
-      <c r="H42" s="1">
+      <c r="L42" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J42" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
+      <c r="N42" s="1">
+        <v>-25.26</v>
+      </c>
+      <c r="O42" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
       <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
+        <v>9408</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3136</v>
+      </c>
+      <c r="F43" s="3">
+        <v>144848</v>
+      </c>
+      <c r="H43" s="6">
         <v>1497185.17</v>
       </c>
-      <c r="E43" s="1">
+      <c r="I43" s="1">
         <v>0.80900000000000005</v>
       </c>
-      <c r="G43" s="1">
+      <c r="K43" s="1">
         <v>1497185.17</v>
       </c>
-      <c r="H43" s="1">
+      <c r="L43" s="1">
         <v>5.4080000000000004</v>
       </c>
-      <c r="J43" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10">
+      <c r="N43" s="1">
+        <v>1497185.17</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.96730000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
       <c r="C44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
+        <v>1443</v>
+      </c>
+      <c r="E44" s="3">
+        <v>846</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9614</v>
+      </c>
+      <c r="H44" s="6">
         <v>-58063.74</v>
       </c>
-      <c r="E44" s="1">
+      <c r="I44" s="1">
         <v>0.121</v>
       </c>
-      <c r="G44" s="1">
+      <c r="K44" s="1">
         <v>-58063.74</v>
       </c>
-      <c r="H44" s="1">
+      <c r="L44" s="1">
         <v>0.28599999999999998</v>
       </c>
-      <c r="J44" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10">
+      <c r="N44" s="1">
+        <v>-58063.74</v>
+      </c>
+      <c r="O44" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
       <c r="C45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
+        <v>1620</v>
+      </c>
+      <c r="E45" s="3">
+        <v>687</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3168</v>
+      </c>
+      <c r="H45" s="6">
         <v>320.62</v>
       </c>
-      <c r="E45" s="1">
+      <c r="I45" s="1">
         <v>0.109</v>
       </c>
-      <c r="G45" s="1">
+      <c r="K45" s="1">
         <v>320.62</v>
       </c>
-      <c r="H45" s="1">
+      <c r="L45" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J45" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10">
+      <c r="N45" s="1">
+        <v>320.62</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15">
       <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
+        <v>2923</v>
+      </c>
+      <c r="E46" s="3">
+        <v>662</v>
+      </c>
+      <c r="F46" s="3">
+        <v>13288</v>
+      </c>
+      <c r="H46" s="6">
         <v>14076036.49</v>
       </c>
-      <c r="E46" s="1">
+      <c r="I46" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="G46" s="1">
+      <c r="K46" s="1">
         <v>14076036.49</v>
       </c>
-      <c r="H46" s="1">
+      <c r="L46" s="1">
         <v>0.35299999999999998</v>
       </c>
-      <c r="J46" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10">
+      <c r="N46" s="1">
+        <v>14076036.49</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.1071</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
       <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
+        <v>1376</v>
+      </c>
+      <c r="E47" s="3">
+        <v>625</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6018</v>
+      </c>
+      <c r="H47" s="6">
         <v>-9380.76</v>
       </c>
-      <c r="E47" s="1">
+      <c r="I47" s="1">
         <v>0.161</v>
       </c>
-      <c r="G47" s="1">
+      <c r="K47" s="1">
         <v>-9380.76</v>
       </c>
-      <c r="H47" s="1">
+      <c r="L47" s="1">
         <v>0.20300000000000001</v>
       </c>
-      <c r="J47" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10">
+      <c r="N47" s="1">
+        <v>-9380.76</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.23760000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
       <c r="C48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>410</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5141</v>
+      </c>
+      <c r="H48" s="6">
         <v>-2581.14</v>
       </c>
-      <c r="E48" s="1">
+      <c r="I48" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G48" s="1">
+      <c r="K48" s="1">
         <v>-2581.14</v>
       </c>
-      <c r="H48" s="1">
+      <c r="L48" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="J48" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10">
-      <c r="C49" s="10" t="s">
+      <c r="N48" s="1">
+        <v>-2581.14</v>
+      </c>
+      <c r="O48" s="1">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="3">
+        <v>4883</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2030</v>
+      </c>
+      <c r="F49" s="3">
+        <v>73152</v>
+      </c>
+      <c r="H49" s="10">
         <v>301.70999999999998</v>
       </c>
-      <c r="E49" s="10">
+      <c r="I49" s="9">
         <v>5.7839999999999998</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13">
-        <v>1E+30</v>
-      </c>
-      <c r="H49" s="10">
+      <c r="J49" s="11"/>
+      <c r="K49" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49" s="9">
         <v>2188.029</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10">
+      <c r="M49" s="11"/>
+      <c r="N49" s="1">
+        <v>301.70999999999998</v>
+      </c>
+      <c r="O49" s="1">
+        <v>3.5320999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15">
       <c r="C50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="3">
+        <v>1988</v>
+      </c>
+      <c r="E50" s="3">
+        <v>940</v>
+      </c>
+      <c r="F50" s="3">
+        <v>14698</v>
+      </c>
+      <c r="H50" s="6">
         <v>-6113.14</v>
       </c>
-      <c r="E50" s="1">
+      <c r="I50" s="1">
         <v>0.249</v>
       </c>
-      <c r="G50" s="1">
+      <c r="K50" s="3">
         <v>-6113.14</v>
       </c>
-      <c r="H50" s="1">
+      <c r="L50" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="J50" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10">
+      <c r="N50" s="1">
+        <v>-6113.14</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.49680000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15">
       <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
+        <v>2172</v>
+      </c>
+      <c r="E51" s="3">
+        <v>975</v>
+      </c>
+      <c r="F51" s="3">
+        <v>13057</v>
+      </c>
+      <c r="H51" s="6">
         <v>-4497.28</v>
       </c>
-      <c r="E51" s="1">
+      <c r="I51" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G51" s="1">
+      <c r="K51" s="3">
         <v>-4497.28</v>
       </c>
-      <c r="H51" s="1">
+      <c r="L51" s="1">
         <v>0.193</v>
       </c>
-      <c r="J51" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10">
-      <c r="C52" s="10" t="s">
+      <c r="N51" s="1">
+        <v>-4497.28</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.1515</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="3">
+        <v>3652</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1441</v>
+      </c>
+      <c r="F52" s="3">
+        <v>43167</v>
+      </c>
+      <c r="H52" s="10">
         <v>-557.49</v>
       </c>
-      <c r="E52" s="10">
+      <c r="I52" s="9">
         <v>0.73099999999999998</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13">
-        <v>1E+30</v>
-      </c>
-      <c r="H52" s="10">
+      <c r="J52" s="11"/>
+      <c r="K52" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L52" s="9">
         <v>12712.605</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10">
-      <c r="C53" s="10" t="s">
+      <c r="M52" s="11"/>
+      <c r="N52" s="1">
+        <v>-557.49</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.1069</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="3">
+        <v>2789</v>
+      </c>
+      <c r="E53" s="3">
+        <v>722</v>
+      </c>
+      <c r="F53" s="3">
+        <v>9126</v>
+      </c>
+      <c r="H53" s="10">
         <v>-2720107.54</v>
       </c>
-      <c r="E53" s="10">
+      <c r="I53" s="9">
         <v>0.36799999999999999</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="10">
+      <c r="J53" s="11"/>
+      <c r="K53" s="14">
         <v>-2720107.53</v>
       </c>
-      <c r="H53" s="10">
+      <c r="L53" s="9">
         <v>0.498</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10">
+      <c r="M53" s="11"/>
+      <c r="N53" s="1">
+        <v>-2720107.54</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0.15240000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
       <c r="C54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="3">
+        <v>8856</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3192</v>
+      </c>
+      <c r="F54" s="3">
+        <v>38304</v>
+      </c>
+      <c r="H54" s="6">
         <v>522.89</v>
       </c>
-      <c r="E54" s="1">
+      <c r="I54" s="1">
         <v>1.226</v>
       </c>
-      <c r="G54" s="1">
+      <c r="K54" s="3">
         <v>522.89</v>
       </c>
-      <c r="H54" s="1">
+      <c r="L54" s="1">
         <v>151.13999999999999</v>
       </c>
-      <c r="J54" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10">
-      <c r="C55" s="10" t="s">
+      <c r="N54" s="1">
+        <v>522.89</v>
+      </c>
+      <c r="O54" s="1">
+        <v>28.221800000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15">
+      <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="3">
+        <v>22275</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6330</v>
+      </c>
+      <c r="F55" s="3">
+        <v>94950</v>
+      </c>
+      <c r="H55" s="10">
         <v>1040.99</v>
       </c>
-      <c r="E55" s="10">
+      <c r="I55" s="9">
         <v>17.212</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="10">
-        <v>803</v>
-      </c>
-      <c r="H55" s="10">
+      <c r="J55" s="11"/>
+      <c r="K55" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="9">
         <v>2075.136</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
+      <c r="M55" s="11"/>
+      <c r="N55" s="1">
+        <v>1040.99</v>
+      </c>
+      <c r="O55" s="1">
+        <v>367.81569999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
       <c r="C56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="3">
+        <v>1632</v>
+      </c>
+      <c r="E56" s="3">
+        <v>912</v>
+      </c>
+      <c r="F56" s="3">
+        <v>7296</v>
+      </c>
+      <c r="H56" s="6">
         <v>203.5</v>
       </c>
-      <c r="E56" s="1">
+      <c r="I56" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="G56" s="1">
+      <c r="K56" s="1">
         <v>203.5</v>
       </c>
-      <c r="H56" s="1">
+      <c r="L56" s="1">
         <v>1.2490000000000001</v>
       </c>
-      <c r="J56" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10">
+      <c r="N56" s="1">
+        <v>203.5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.5776</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15">
       <c r="C57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="3">
+        <v>180</v>
+      </c>
+      <c r="E57" s="3">
+        <v>91</v>
+      </c>
+      <c r="F57" s="3">
+        <v>663</v>
+      </c>
+      <c r="H57" s="6">
         <v>-266.62</v>
       </c>
-      <c r="E57" s="1">
+      <c r="I57" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G57" s="1">
+      <c r="K57" s="1">
         <v>-266.62</v>
       </c>
-      <c r="H57" s="1">
+      <c r="L57" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J57" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10">
+      <c r="N57" s="1">
+        <v>-266.62</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15">
       <c r="C58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="3">
+        <v>103</v>
+      </c>
+      <c r="E58" s="3">
+        <v>105</v>
+      </c>
+      <c r="F58" s="3">
+        <v>280</v>
+      </c>
+      <c r="H58" s="6">
         <v>-52.2</v>
       </c>
-      <c r="E58" s="1">
+      <c r="I58" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G58" s="1">
+      <c r="K58" s="1">
         <v>-52.2</v>
       </c>
-      <c r="H58" s="1">
+      <c r="L58" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J58" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10">
+      <c r="N58" s="1">
+        <v>-52.2</v>
+      </c>
+      <c r="O58" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15">
       <c r="C59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="3">
+        <v>203</v>
+      </c>
+      <c r="E59" s="3">
+        <v>205</v>
+      </c>
+      <c r="F59" s="3">
+        <v>551</v>
+      </c>
+      <c r="H59" s="6">
         <v>-52.2</v>
       </c>
-      <c r="E59" s="1">
+      <c r="I59" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G59" s="1">
+      <c r="K59" s="1">
         <v>-52.2</v>
       </c>
-      <c r="H59" s="1">
+      <c r="L59" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J59" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10">
+      <c r="N59" s="1">
+        <v>-52.2</v>
+      </c>
+      <c r="O59" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15">
       <c r="C60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="3">
+        <v>48</v>
+      </c>
+      <c r="E60" s="3">
+        <v>50</v>
+      </c>
+      <c r="F60" s="3">
+        <v>130</v>
+      </c>
+      <c r="H60" s="6">
         <v>-64.58</v>
       </c>
-      <c r="E60" s="1">
+      <c r="I60" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G60" s="1">
+      <c r="K60" s="1">
         <v>-64.58</v>
       </c>
-      <c r="H60" s="1">
+      <c r="L60" s="1">
         <v>1E-3</v>
       </c>
-      <c r="J60" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10">
+      <c r="N60" s="1">
+        <v>-64.58</v>
+      </c>
+      <c r="O60" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15">
       <c r="C61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="3">
+        <v>48</v>
+      </c>
+      <c r="E61" s="3">
+        <v>50</v>
+      </c>
+      <c r="F61" s="3">
+        <v>118</v>
+      </c>
+      <c r="H61" s="6">
         <v>-70</v>
       </c>
-      <c r="E61" s="1">
+      <c r="I61" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="G61" s="1">
+      <c r="K61" s="1">
         <v>-70</v>
       </c>
-      <c r="H61" s="1">
+      <c r="L61" s="1">
         <v>1E-3</v>
       </c>
-      <c r="J61" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10">
+      <c r="N61" s="1">
+        <v>-70</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15">
       <c r="C62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>471</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1554</v>
+      </c>
+      <c r="H62" s="6">
         <v>-14753433.060000001</v>
       </c>
-      <c r="E62" s="1">
+      <c r="I62" s="1">
         <v>0.106</v>
       </c>
-      <c r="G62" s="1">
+      <c r="K62" s="1">
         <v>-14753433.060000001</v>
       </c>
-      <c r="H62" s="1">
+      <c r="L62" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J62" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10">
+      <c r="N62" s="1">
+        <v>-14753433.060000001</v>
+      </c>
+      <c r="O62" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15">
       <c r="C63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="3">
+        <v>140</v>
+      </c>
+      <c r="E63" s="3">
+        <v>129</v>
+      </c>
+      <c r="F63" s="3">
+        <v>420</v>
+      </c>
+      <c r="H63" s="6">
         <v>-2331389.8199999998</v>
       </c>
-      <c r="E63" s="1">
+      <c r="I63" s="1">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G63" s="1">
+      <c r="K63" s="1">
         <v>-2331389.8199999998</v>
       </c>
-      <c r="H63" s="1">
+      <c r="L63" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J63" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10">
+      <c r="N63" s="1">
+        <v>-2331389.8199999998</v>
+      </c>
+      <c r="O63" s="1">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15">
       <c r="C64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="3">
+        <v>457</v>
+      </c>
+      <c r="E64" s="3">
+        <v>330</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2589</v>
+      </c>
+      <c r="H64" s="6">
         <v>18416.759999999998</v>
       </c>
-      <c r="E64" s="1">
+      <c r="I64" s="1">
         <v>0.108</v>
       </c>
-      <c r="G64" s="1">
+      <c r="K64" s="1">
         <v>18416.759999999998</v>
       </c>
-      <c r="H64" s="1">
+      <c r="L64" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J64" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10">
+      <c r="N64" s="1">
+        <v>18416.759999999998</v>
+      </c>
+      <c r="O64" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15">
       <c r="C65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="3">
+        <v>914</v>
+      </c>
+      <c r="E65" s="3">
+        <v>660</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5183</v>
+      </c>
+      <c r="H65" s="6">
         <v>36660.26</v>
       </c>
-      <c r="E65" s="1">
+      <c r="I65" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G65" s="1">
+      <c r="K65" s="1">
         <v>36660.26</v>
       </c>
-      <c r="H65" s="1">
+      <c r="L65" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="J65" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10">
+      <c r="N65" s="1">
+        <v>36660.26</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15">
       <c r="C66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="3">
+        <v>1371</v>
+      </c>
+      <c r="E66" s="3">
+        <v>990</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7777</v>
+      </c>
+      <c r="H66" s="6">
         <v>54901.25</v>
       </c>
-      <c r="E66" s="1">
+      <c r="I66" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G66" s="1">
+      <c r="K66" s="1">
         <v>54901.25</v>
       </c>
-      <c r="H66" s="1">
+      <c r="L66" s="1">
         <v>0.187</v>
       </c>
-      <c r="J66" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10">
+      <c r="N66" s="1">
+        <v>54901.25</v>
+      </c>
+      <c r="O66" s="1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15">
       <c r="C67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="3">
+        <v>358</v>
+      </c>
+      <c r="E67" s="3">
+        <v>388</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1426</v>
+      </c>
+      <c r="H67" s="6">
         <v>1878.12</v>
       </c>
-      <c r="E67" s="1">
+      <c r="I67" s="1">
         <v>0.1</v>
       </c>
-      <c r="G67" s="1">
+      <c r="K67" s="1">
         <v>1878.12</v>
       </c>
-      <c r="H67" s="1">
+      <c r="L67" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J67" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10">
+      <c r="N67" s="1">
+        <v>1878.12</v>
+      </c>
+      <c r="O67" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15">
       <c r="C68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="3">
+        <v>1169</v>
+      </c>
+      <c r="E68" s="3">
+        <v>490</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3182</v>
+      </c>
+      <c r="H68" s="6">
         <v>904.3</v>
       </c>
-      <c r="E68" s="1">
+      <c r="I68" s="1">
         <v>0.107</v>
       </c>
-      <c r="G68" s="1">
+      <c r="K68" s="1">
         <v>904.3</v>
       </c>
-      <c r="H68" s="1">
+      <c r="L68" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J68" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10">
+      <c r="N68" s="1">
+        <v>904.3</v>
+      </c>
+      <c r="O68" s="1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15">
       <c r="C69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="3">
+        <v>760</v>
+      </c>
+      <c r="E69" s="3">
+        <v>77</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2388</v>
+      </c>
+      <c r="H69" s="6">
         <v>8.67</v>
       </c>
-      <c r="E69" s="1">
+      <c r="I69" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G69" s="1">
+      <c r="K69" s="1">
         <v>8.67</v>
       </c>
-      <c r="H69" s="1">
+      <c r="L69" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J69" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10">
+      <c r="N69" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="O69" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15">
       <c r="C70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="3">
+        <v>1350</v>
+      </c>
+      <c r="E70" s="3">
+        <v>147</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4316</v>
+      </c>
+      <c r="H70" s="6">
         <v>50.5</v>
       </c>
-      <c r="E70" s="1">
+      <c r="I70" s="1">
         <v>0.107</v>
       </c>
-      <c r="G70" s="1">
+      <c r="K70" s="1">
         <v>50.5</v>
       </c>
-      <c r="H70" s="1">
+      <c r="L70" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J70" s="6" t="b">
-        <f t="shared" ref="J70:J95" si="1">D70=G70</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10">
+      <c r="N70" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O70" s="1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15">
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="3">
+        <v>2750</v>
+      </c>
+      <c r="E71" s="3">
+        <v>397</v>
+      </c>
+      <c r="F71" s="3">
+        <v>8584</v>
+      </c>
+      <c r="H71" s="6">
         <v>905</v>
       </c>
-      <c r="E71" s="1">
+      <c r="I71" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G71" s="1">
+      <c r="K71" s="1">
         <v>905</v>
       </c>
-      <c r="H71" s="1">
+      <c r="L71" s="1">
         <v>0.126</v>
       </c>
-      <c r="J71" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10">
+      <c r="N71" s="1">
+        <v>905</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15">
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="3">
+        <v>480</v>
+      </c>
+      <c r="E72" s="3">
+        <v>300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1692</v>
+      </c>
+      <c r="H72" s="6">
         <v>1412.25</v>
       </c>
-      <c r="E72" s="1">
+      <c r="I72" s="1">
         <v>0.1</v>
       </c>
-      <c r="G72" s="1">
+      <c r="K72" s="1">
         <v>1412.25</v>
       </c>
-      <c r="H72" s="1">
+      <c r="L72" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J72" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10">
+      <c r="N72" s="1">
+        <v>1412.25</v>
+      </c>
+      <c r="O72" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15">
       <c r="C73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="3">
+        <v>1880</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1090</v>
+      </c>
+      <c r="F73" s="3">
+        <v>6714</v>
+      </c>
+      <c r="H73" s="6">
         <v>1724.81</v>
       </c>
-      <c r="E73" s="1">
+      <c r="I73" s="1">
         <v>0.111</v>
       </c>
-      <c r="G73" s="1">
+      <c r="K73" s="1">
         <v>1724.81</v>
       </c>
-      <c r="H73" s="1">
+      <c r="L73" s="1">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="J73" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10">
+      <c r="N73" s="1">
+        <v>1724.81</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15">
       <c r="C74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="3">
+        <v>2480</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1480</v>
+      </c>
+      <c r="F74" s="3">
+        <v>8874</v>
+      </c>
+      <c r="H74" s="6">
         <v>1424</v>
       </c>
-      <c r="E74" s="1">
+      <c r="I74" s="1">
         <v>0.107</v>
       </c>
-      <c r="G74" s="1">
+      <c r="K74" s="1">
         <v>1424</v>
       </c>
-      <c r="H74" s="1">
+      <c r="L74" s="1">
         <v>0.11</v>
       </c>
-      <c r="J74" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10">
+      <c r="N74" s="1">
+        <v>1424</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15">
       <c r="C75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="3">
+        <v>1028</v>
+      </c>
+      <c r="E75" s="3">
+        <v>515</v>
+      </c>
+      <c r="F75" s="3">
+        <v>4352</v>
+      </c>
+      <c r="H75" s="6">
         <v>15711.6</v>
       </c>
-      <c r="E75" s="1">
+      <c r="I75" s="1">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G75" s="1">
+      <c r="K75" s="1">
         <v>15711.6</v>
       </c>
-      <c r="H75" s="1">
+      <c r="L75" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J75" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10">
+      <c r="N75" s="1">
+        <v>15711.6</v>
+      </c>
+      <c r="O75" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15">
       <c r="C76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="3">
+        <v>225</v>
+      </c>
+      <c r="E76" s="3">
+        <v>117</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1151</v>
+      </c>
+      <c r="H76" s="6">
         <v>-76589.320000000007</v>
       </c>
-      <c r="E76" s="1">
+      <c r="I76" s="1">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G76" s="1">
+      <c r="K76" s="1">
         <v>-76589.320000000007</v>
       </c>
-      <c r="H76" s="1">
+      <c r="L76" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J76" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10">
+      <c r="N76" s="1">
+        <v>-76589.320000000007</v>
+      </c>
+      <c r="O76" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15">
       <c r="C77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="3">
+        <v>79</v>
+      </c>
+      <c r="E77" s="3">
+        <v>96</v>
+      </c>
+      <c r="F77" s="3">
+        <v>694</v>
+      </c>
+      <c r="H77" s="6">
         <v>-415.73</v>
       </c>
-      <c r="E77" s="1">
+      <c r="I77" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G77" s="1">
+      <c r="K77" s="1">
         <v>-415.73</v>
       </c>
-      <c r="H77" s="1">
+      <c r="L77" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J77" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10">
+      <c r="N77" s="1">
+        <v>-415.73</v>
+      </c>
+      <c r="O77" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15">
       <c r="C78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="3">
+        <v>1775</v>
+      </c>
+      <c r="E78" s="3">
+        <v>536</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3556</v>
+      </c>
+      <c r="H78" s="6">
         <v>1208825346</v>
       </c>
-      <c r="E78" s="1">
+      <c r="I78" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G78" s="1">
+      <c r="K78" s="1">
         <v>1208825346</v>
       </c>
-      <c r="H78" s="1">
+      <c r="L78" s="1">
         <v>0.04</v>
       </c>
-      <c r="J78" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10">
+      <c r="N78" s="1">
+        <v>1208825346</v>
+      </c>
+      <c r="O78" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15">
       <c r="C79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="3">
+        <v>2118</v>
+      </c>
+      <c r="E79" s="3">
+        <v>402</v>
+      </c>
+      <c r="F79" s="3">
+        <v>6332</v>
+      </c>
+      <c r="H79" s="6">
         <v>1793324.54</v>
       </c>
-      <c r="E79" s="1">
+      <c r="I79" s="1">
         <v>0.107</v>
       </c>
-      <c r="G79" s="1">
+      <c r="K79" s="1">
         <v>1793324.54</v>
       </c>
-      <c r="H79" s="1">
+      <c r="L79" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J79" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10">
+      <c r="N79" s="1">
+        <v>1793324.54</v>
+      </c>
+      <c r="O79" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15">
       <c r="C80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="3">
+        <v>1458</v>
+      </c>
+      <c r="E80" s="3">
+        <v>402</v>
+      </c>
+      <c r="F80" s="3">
+        <v>4352</v>
+      </c>
+      <c r="H80" s="6">
         <v>1798714.7</v>
       </c>
-      <c r="E80" s="1">
+      <c r="I80" s="1">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G80" s="1">
+      <c r="K80" s="1">
         <v>1798714.7</v>
       </c>
-      <c r="H80" s="1">
+      <c r="L80" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J80" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10">
+      <c r="N80" s="1">
+        <v>1798714.7</v>
+      </c>
+      <c r="O80" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15">
       <c r="C81" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="3">
+        <v>4283</v>
+      </c>
+      <c r="E81" s="3">
+        <v>778</v>
+      </c>
+      <c r="F81" s="3">
+        <v>12802</v>
+      </c>
+      <c r="H81" s="6">
         <v>1909055.21</v>
       </c>
-      <c r="E81" s="1">
+      <c r="I81" s="1">
         <v>0.122</v>
       </c>
-      <c r="G81" s="1">
+      <c r="K81" s="1">
         <v>1909055.21</v>
       </c>
-      <c r="H81" s="1">
+      <c r="L81" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="J81" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10">
+      <c r="N81" s="1">
+        <v>1909055.21</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15">
       <c r="C82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="3">
+        <v>2387</v>
+      </c>
+      <c r="E82" s="3">
+        <v>778</v>
+      </c>
+      <c r="F82" s="3">
+        <v>7114</v>
+      </c>
+      <c r="H82" s="6">
         <v>1920098.21</v>
       </c>
-      <c r="E82" s="1">
+      <c r="I82" s="1">
         <v>0.11</v>
       </c>
-      <c r="G82" s="1">
+      <c r="K82" s="1">
         <v>1920098.21</v>
       </c>
-      <c r="H82" s="1">
+      <c r="L82" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J82" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10">
+      <c r="N82" s="1">
+        <v>1920098.21</v>
+      </c>
+      <c r="O82" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15">
       <c r="C83" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="3">
+        <v>5427</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1151</v>
+      </c>
+      <c r="F83" s="3">
+        <v>16170</v>
+      </c>
+      <c r="H83" s="6">
         <v>1470187.92</v>
       </c>
-      <c r="E83" s="1">
+      <c r="I83" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G83" s="1">
+      <c r="K83" s="1">
         <v>1470187.92</v>
       </c>
-      <c r="H83" s="1">
+      <c r="L83" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J83" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10">
+      <c r="N83" s="1">
+        <v>1470187.92</v>
+      </c>
+      <c r="O83" s="1">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15">
       <c r="C84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="3">
+        <v>2763</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1151</v>
+      </c>
+      <c r="F84" s="3">
+        <v>8178</v>
+      </c>
+      <c r="H84" s="6">
         <v>1489236.13</v>
       </c>
-      <c r="E84" s="1">
+      <c r="I84" s="1">
         <v>0.121</v>
       </c>
-      <c r="G84" s="1">
+      <c r="K84" s="1">
         <v>1489236.13</v>
       </c>
-      <c r="H84" s="1">
+      <c r="L84" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J84" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10">
+      <c r="N84" s="1">
+        <v>1489236.13</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15">
       <c r="C85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="3">
+        <v>467</v>
+      </c>
+      <c r="E85" s="3">
+        <v>356</v>
+      </c>
+      <c r="F85" s="3">
+        <v>3856</v>
+      </c>
+      <c r="H85" s="6">
         <v>-251.27</v>
       </c>
-      <c r="E85" s="1">
+      <c r="I85" s="1">
         <v>0.114</v>
       </c>
-      <c r="G85" s="1">
+      <c r="K85" s="1">
         <v>-251.27</v>
       </c>
-      <c r="H85" s="1">
+      <c r="L85" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J85" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10">
+      <c r="N85" s="1">
+        <v>-251.27</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15">
       <c r="C86" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="3">
+        <v>1075</v>
+      </c>
+      <c r="E86" s="3">
+        <v>359</v>
+      </c>
+      <c r="F86" s="3">
+        <v>3031</v>
+      </c>
+      <c r="H86" s="6">
         <v>1257.7</v>
       </c>
-      <c r="E86" s="1">
+      <c r="I86" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G86" s="1">
+      <c r="K86" s="1">
         <v>1257.7</v>
       </c>
-      <c r="H86" s="1">
+      <c r="L86" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J86" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10">
+      <c r="N86" s="1">
+        <v>1257.7</v>
+      </c>
+      <c r="O86" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15">
       <c r="C87" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="3">
+        <v>1184</v>
+      </c>
+      <c r="E87" s="3">
+        <v>361</v>
+      </c>
+      <c r="F87" s="3">
+        <v>3139</v>
+      </c>
+      <c r="H87" s="6">
         <v>1257.7</v>
       </c>
-      <c r="E87" s="1">
+      <c r="I87" s="1">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G87" s="1">
+      <c r="K87" s="1">
         <v>1257.7</v>
       </c>
-      <c r="H87" s="1">
+      <c r="L87" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J87" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="3:10">
+      <c r="N87" s="1">
+        <v>1257.7</v>
+      </c>
+      <c r="O87" s="1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15">
       <c r="C88" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="3">
+        <v>1075</v>
+      </c>
+      <c r="E88" s="3">
+        <v>467</v>
+      </c>
+      <c r="F88" s="3">
+        <v>3679</v>
+      </c>
+      <c r="H88" s="6">
         <v>1406.02</v>
       </c>
-      <c r="E88" s="1">
+      <c r="I88" s="1">
         <v>0.104</v>
       </c>
-      <c r="G88" s="1">
+      <c r="K88" s="1">
         <v>1406.02</v>
       </c>
-      <c r="H88" s="1">
+      <c r="L88" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J88" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="3:10">
+      <c r="N88" s="1">
+        <v>1406.02</v>
+      </c>
+      <c r="O88" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15">
       <c r="C89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="3">
+        <v>111</v>
+      </c>
+      <c r="E89" s="3">
+        <v>117</v>
+      </c>
+      <c r="F89" s="3">
+        <v>447</v>
+      </c>
+      <c r="H89" s="6">
         <v>-41131.980000000003</v>
       </c>
-      <c r="E89" s="1">
+      <c r="I89" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G89" s="1">
+      <c r="K89" s="1">
         <v>-41131.980000000003</v>
       </c>
-      <c r="H89" s="1">
+      <c r="L89" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J89" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10">
+      <c r="N89" s="1">
+        <v>-41131.980000000003</v>
+      </c>
+      <c r="O89" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15">
       <c r="C90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="3">
+        <v>2031</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2157</v>
+      </c>
+      <c r="F90" s="3">
+        <v>8343</v>
+      </c>
+      <c r="H90" s="6">
         <v>-39024.410000000003</v>
       </c>
-      <c r="E90" s="1">
+      <c r="I90" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G90" s="1">
+      <c r="K90" s="1">
         <v>-39024.410000000003</v>
       </c>
-      <c r="H90" s="1">
+      <c r="L90" s="1">
         <v>0.30499999999999999</v>
       </c>
-      <c r="J90" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10">
+      <c r="N90" s="1">
+        <v>-39024.410000000003</v>
+      </c>
+      <c r="O90" s="1">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:15">
       <c r="C91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="3">
+        <v>15695</v>
+      </c>
+      <c r="E91" s="3">
+        <v>16675</v>
+      </c>
+      <c r="F91" s="3">
+        <v>64875</v>
+      </c>
+      <c r="H91" s="6">
         <v>-39976.78</v>
       </c>
-      <c r="E91" s="1">
+      <c r="I91" s="1">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G91" s="1">
+      <c r="K91" s="1">
         <v>-39976.78</v>
       </c>
-      <c r="H91" s="1">
+      <c r="L91" s="1">
         <v>21.466000000000001</v>
       </c>
-      <c r="J91" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10">
+      <c r="N91" s="1">
+        <v>-39976.78</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0.45829999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15">
       <c r="C92" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="3">
+        <v>8806</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F92" s="3">
+        <v>27836</v>
+      </c>
+      <c r="H92" s="6">
         <v>458815.85</v>
       </c>
-      <c r="E92" s="1">
+      <c r="I92" s="1">
         <v>2.4990000000000001</v>
       </c>
-      <c r="G92" s="1">
+      <c r="K92" s="1">
         <v>458815.85</v>
       </c>
-      <c r="H92" s="1">
+      <c r="L92" s="1">
         <v>1.9670000000000001</v>
       </c>
-      <c r="J92" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10">
+      <c r="N92" s="1">
+        <v>458815.85</v>
+      </c>
+      <c r="O92" s="1">
+        <v>2.3772000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15">
       <c r="C93" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="3">
+        <v>203</v>
+      </c>
+      <c r="E93" s="3">
+        <v>198</v>
+      </c>
+      <c r="F93" s="3">
+        <v>908</v>
+      </c>
+      <c r="H93" s="6">
         <v>129831.46</v>
       </c>
-      <c r="E93" s="1">
+      <c r="I93" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G93" s="1">
+      <c r="K93" s="1">
         <v>129831.46</v>
       </c>
-      <c r="H93" s="1">
+      <c r="L93" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J93" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10">
+      <c r="N93" s="1">
+        <v>129831.46</v>
+      </c>
+      <c r="O93" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15">
       <c r="C94" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="3">
+        <v>2594</v>
+      </c>
+      <c r="E94" s="3">
+        <v>244</v>
+      </c>
+      <c r="F94" s="3">
+        <v>70215</v>
+      </c>
+      <c r="H94" s="6">
         <v>1.44</v>
       </c>
-      <c r="E94" s="1">
+      <c r="I94" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G94" s="1">
+      <c r="K94" s="1">
         <v>1.44</v>
       </c>
-      <c r="H94" s="1">
+      <c r="L94" s="1">
         <v>0.1</v>
       </c>
-      <c r="J94" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10">
+      <c r="N94" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="O94" s="1">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15">
       <c r="C95" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="3">
+        <v>8405</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1098</v>
+      </c>
+      <c r="F95" s="3">
+        <v>37474</v>
+      </c>
+      <c r="H95" s="6">
         <v>1.3</v>
       </c>
-      <c r="E95" s="1">
+      <c r="I95" s="1">
         <v>0.158</v>
       </c>
-      <c r="G95" s="1">
+      <c r="K95" s="1">
         <v>1.3</v>
       </c>
-      <c r="H95" s="1">
+      <c r="L95" s="1">
         <v>1.127</v>
       </c>
-      <c r="J95" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="N95" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0.13730000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="3:15">
+      <c r="C96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I96">
+        <f>SUM(I5:I95)</f>
+        <v>42.862999999999971</v>
+      </c>
+      <c r="L96">
+        <f>SUM(L5:L95)</f>
+        <v>17189.133000000009</v>
+      </c>
+      <c r="O96">
+        <f>SUM(O5:O95)</f>
+        <v>410.76609999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4555,7 +5611,7 @@
   <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B2" sqref="B2:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4572,20 +5628,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">

--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926B41F-C174-472C-9213-6FB64F6AF10A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72068781-3DE6-43F8-93CA-8ED3BB67D8FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="L1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="141">
   <si>
     <t>Instance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +356,112 @@
   </si>
   <si>
     <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_lps/L1_bts4.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_cbs.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_dale.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_five20b.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_five20c.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13x13x13a.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13x13x13b.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13x13x13c.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13x13x13d.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13x13x13e.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13x13x7d.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier13x7x7d.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier16.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier16x16x16a.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier16x16x16b.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier16x16x16c.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier16x16x16d.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_hier16x16x16e.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_jjtabeltest3.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_nine12.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_nine5d.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_ninenew.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_osorio.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_table1.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_table3.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_table4.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_table5.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_table6.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_table7.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_table8.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_targus.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_toy3dsarah.mps</t>
+  </si>
+  <si>
+    <t>L1_lps/L1_two5in6.mps</t>
+  </si>
+  <si>
+    <t>Sum.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,9 +556,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -459,6 +563,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2611,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B148FCE2-31BC-4187-A18A-83DB8CC62976}">
   <dimension ref="C3:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="O96" sqref="C4:O96"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2629,10 +2736,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="3:15">
       <c r="C4" t="s">
@@ -2647,18 +2754,18 @@
       <c r="F4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="14"/>
+      <c r="K4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="L4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="1" t="s">
@@ -4090,7 +4197,7 @@
         <v>5.7839999999999998</v>
       </c>
       <c r="J49" s="11"/>
-      <c r="K49" s="13" t="s">
+      <c r="K49" s="12" t="s">
         <v>104</v>
       </c>
       <c r="L49" s="9">
@@ -4188,7 +4295,7 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="J52" s="11"/>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="12" t="s">
         <v>104</v>
       </c>
       <c r="L52" s="9">
@@ -4222,7 +4329,7 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="J53" s="11"/>
-      <c r="K53" s="14">
+      <c r="K53" s="13">
         <v>-2720107.53</v>
       </c>
       <c r="L53" s="9">
@@ -4288,7 +4395,7 @@
         <v>17.212</v>
       </c>
       <c r="J55" s="11"/>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="13" t="s">
         <v>104</v>
       </c>
       <c r="L55" s="9">
@@ -5607,6 +5714,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A9F37A-8533-49F7-861F-2799AC89F893}">
+  <dimension ref="E6:V41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:N41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:22">
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="5:22">
+      <c r="E7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70126</v>
+      </c>
+      <c r="G7" s="1">
+        <v>35552</v>
+      </c>
+      <c r="H7" s="1">
+        <v>264230</v>
+      </c>
+      <c r="I7">
+        <v>269.05</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>269.05</v>
+      </c>
+      <c r="L7" s="1">
+        <v>65.331000000000003</v>
+      </c>
+      <c r="M7" s="1">
+        <v>269.05</v>
+      </c>
+      <c r="N7">
+        <v>2.65</v>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="5:22">
+      <c r="E8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3356</v>
+      </c>
+      <c r="G8" s="1">
+        <v>241</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6712</v>
+      </c>
+      <c r="I8">
+        <v>1167.06</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1167.06</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1167.06</v>
+      </c>
+      <c r="N8">
+        <v>0.06</v>
+      </c>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="5:22">
+      <c r="E9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="1">
+        <v>24939</v>
+      </c>
+      <c r="G9" s="1">
+        <v>405</v>
+      </c>
+      <c r="H9" s="1">
+        <v>49878</v>
+      </c>
+      <c r="I9">
+        <v>2786.03</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2786.03</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2786.03</v>
+      </c>
+      <c r="N9">
+        <v>0.46</v>
+      </c>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="5:22">
+      <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1">
+        <v>63456</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50982</v>
+      </c>
+      <c r="H10" s="1">
+        <v>393223</v>
+      </c>
+      <c r="I10">
+        <v>475.67</v>
+      </c>
+      <c r="J10" s="1">
+        <v>144.946</v>
+      </c>
+      <c r="K10" s="1">
+        <v>475.67</v>
+      </c>
+      <c r="L10" s="1">
+        <v>734.53700000000003</v>
+      </c>
+      <c r="M10" s="1">
+        <v>475.67</v>
+      </c>
+      <c r="N10">
+        <v>903.3</v>
+      </c>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="5:22">
+      <c r="E11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="1">
+        <v>62669</v>
+      </c>
+      <c r="G11" s="1">
+        <v>56501</v>
+      </c>
+      <c r="H11" s="1">
+        <v>435302</v>
+      </c>
+      <c r="I11">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="J11" s="1">
+        <v>134.52500000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="L11" s="1">
+        <v>670.73199999999997</v>
+      </c>
+      <c r="M11" s="1">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="N11">
+        <v>803.24</v>
+      </c>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="5:22">
+      <c r="E12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3853</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3227</v>
+      </c>
+      <c r="H12" s="1">
+        <v>22844</v>
+      </c>
+      <c r="I12">
+        <v>16.28</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="M12" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="N12">
+        <v>0.5</v>
+      </c>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="5:22">
+      <c r="E13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3848</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3351</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20199</v>
+      </c>
+      <c r="I13">
+        <v>15.77</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="M13" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="N13">
+        <v>0.39</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="5:22">
+      <c r="E14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3848</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3351</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20199</v>
+      </c>
+      <c r="I14">
+        <v>15.77</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="N14">
+        <v>0.39</v>
+      </c>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="5:22">
+      <c r="E15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3848</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3351</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20199</v>
+      </c>
+      <c r="I15">
+        <v>15.77</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="M15" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="N15">
+        <v>0.39</v>
+      </c>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="5:22">
+      <c r="E16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3848</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3351</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20199</v>
+      </c>
+      <c r="I16">
+        <v>31.55</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="K16" s="1">
+        <v>31.55</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="M16" s="1">
+        <v>31.55</v>
+      </c>
+      <c r="N16">
+        <v>0.32</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="5:22">
+      <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3843</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3350</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20175</v>
+      </c>
+      <c r="I17">
+        <v>31.55</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>31.55</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="M17" s="1">
+        <v>31.55</v>
+      </c>
+      <c r="N17">
+        <v>0.33</v>
+      </c>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="5:22">
+      <c r="E18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1956</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1334</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8790</v>
+      </c>
+      <c r="I18">
+        <v>8.52</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="M18" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="N18">
+        <v>0.06</v>
+      </c>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="5:22">
+      <c r="E19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="1">
+        <v>963</v>
+      </c>
+      <c r="G19" s="1">
+        <v>472</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3610</v>
+      </c>
+      <c r="I19">
+        <v>4.66</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="N19">
+        <v>0.01</v>
+      </c>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="5:22">
+      <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6803</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5380</v>
+      </c>
+      <c r="H20" s="1">
+        <v>38644</v>
+      </c>
+      <c r="I20">
+        <v>29.68</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.764</v>
+      </c>
+      <c r="K20" s="1">
+        <v>29.68</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>29.68</v>
+      </c>
+      <c r="N20">
+        <v>2.46</v>
+      </c>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="5:22">
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6767</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5057</v>
+      </c>
+      <c r="H21" s="1">
+        <v>35253</v>
+      </c>
+      <c r="I21">
+        <v>28.76</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K21" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M21" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="N21">
+        <v>1.42</v>
+      </c>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="5:22">
+      <c r="E22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6767</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5057</v>
+      </c>
+      <c r="H22" s="1">
+        <v>35253</v>
+      </c>
+      <c r="I22">
+        <v>28.76</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.752</v>
+      </c>
+      <c r="K22" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="N22">
+        <v>1.42</v>
+      </c>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="5:22">
+      <c r="E23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6767</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5057</v>
+      </c>
+      <c r="H23" s="1">
+        <v>35253</v>
+      </c>
+      <c r="I23">
+        <v>28.76</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K23" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2.113</v>
+      </c>
+      <c r="M23" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="N23">
+        <v>1.42</v>
+      </c>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="5:22">
+      <c r="E24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6767</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5057</v>
+      </c>
+      <c r="H24" s="1">
+        <v>35253</v>
+      </c>
+      <c r="I24">
+        <v>57.52</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="K24" s="1">
+        <v>57.52</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>57.52</v>
+      </c>
+      <c r="N24">
+        <v>1.29</v>
+      </c>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="5:22">
+      <c r="E25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6767</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5057</v>
+      </c>
+      <c r="H25" s="1">
+        <v>35253</v>
+      </c>
+      <c r="I25">
+        <v>57.52</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K25" s="1">
+        <v>57.52</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.859</v>
+      </c>
+      <c r="M25" s="1">
+        <v>57.52</v>
+      </c>
+      <c r="N25">
+        <v>1.29</v>
+      </c>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="5:22">
+      <c r="E26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2736</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1179</v>
+      </c>
+      <c r="H26" s="1">
+        <v>7571</v>
+      </c>
+      <c r="I26">
+        <v>462.02</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>451.64</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="M26" s="1">
+        <v>453.65</v>
+      </c>
+      <c r="N26">
+        <v>0.03</v>
+      </c>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="5:22">
+      <c r="E27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="1">
+        <v>19346</v>
+      </c>
+      <c r="G27" s="1">
+        <v>11089</v>
+      </c>
+      <c r="H27" s="1">
+        <v>99626</v>
+      </c>
+      <c r="I27">
+        <v>140.81</v>
+      </c>
+      <c r="J27" s="1">
+        <v>13.555999999999999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>140.81</v>
+      </c>
+      <c r="L27" s="1">
+        <v>49.207999999999998</v>
+      </c>
+      <c r="M27" s="1">
+        <v>140.81</v>
+      </c>
+      <c r="N27">
+        <v>23.23</v>
+      </c>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="5:22">
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="1">
+        <v>18484</v>
+      </c>
+      <c r="G28" s="1">
+        <v>15494</v>
+      </c>
+      <c r="H28" s="1">
+        <v>104213</v>
+      </c>
+      <c r="I28">
+        <v>179.65</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>179.65</v>
+      </c>
+      <c r="L28" s="1">
+        <v>25.946000000000002</v>
+      </c>
+      <c r="M28" s="1">
+        <v>179.65</v>
+      </c>
+      <c r="N28">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="5:22">
+      <c r="E29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="1">
+        <v>11936</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7043</v>
+      </c>
+      <c r="H29" s="1">
+        <v>61454</v>
+      </c>
+      <c r="I29">
+        <v>101.91</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="K29" s="1">
+        <v>101.91</v>
+      </c>
+      <c r="L29" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="M29" s="1">
+        <v>101.91</v>
+      </c>
+      <c r="N29">
+        <v>3.22</v>
+      </c>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="5:22">
+      <c r="E30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="1">
+        <v>19993</v>
+      </c>
+      <c r="G30" s="1">
+        <v>200</v>
+      </c>
+      <c r="H30" s="1">
+        <v>39986</v>
+      </c>
+      <c r="I30">
+        <v>3.01</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="L30" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="N30">
+        <v>0.04</v>
+      </c>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="5:22">
+      <c r="E31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1755</v>
+      </c>
+      <c r="G31" s="1">
+        <v>374</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5286</v>
+      </c>
+      <c r="I31">
+        <v>188.32</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="K31" s="1">
+        <v>9</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="N31">
+        <v>0.01</v>
+      </c>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="5:22">
+      <c r="E32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4173</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1530</v>
+      </c>
+      <c r="H32" s="1">
+        <v>16870</v>
+      </c>
+      <c r="I32">
+        <v>70.92</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="K32" s="1">
+        <v>70.92</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="M32" s="1">
+        <v>70.92</v>
+      </c>
+      <c r="N32">
+        <v>0.67</v>
+      </c>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="5:22">
+      <c r="E33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4173</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1530</v>
+      </c>
+      <c r="H33" s="1">
+        <v>16870</v>
+      </c>
+      <c r="I33">
+        <v>70.92</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K33" s="1">
+        <v>70.92</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="M33" s="1">
+        <v>70.92</v>
+      </c>
+      <c r="N33">
+        <v>0.67</v>
+      </c>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="5:22">
+      <c r="E34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4173</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1530</v>
+      </c>
+      <c r="H34" s="1">
+        <v>16870</v>
+      </c>
+      <c r="I34">
+        <v>70.92</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K34" s="1">
+        <v>70.92</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M34" s="1">
+        <v>70.92</v>
+      </c>
+      <c r="N34">
+        <v>0.67</v>
+      </c>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="5:22">
+      <c r="E35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1755</v>
+      </c>
+      <c r="G35" s="1">
+        <v>374</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5286</v>
+      </c>
+      <c r="I35">
+        <v>181.05</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="K35" s="1">
+        <v>9</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="N35">
+        <v>0.01</v>
+      </c>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="5:22">
+      <c r="E36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="1">
+        <v>944</v>
+      </c>
+      <c r="G36" s="1">
+        <v>197</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2839</v>
+      </c>
+      <c r="I36">
+        <v>28.46</v>
+      </c>
+      <c r="J36" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>28.46</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>28.46</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="5:22">
+      <c r="E37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2537</v>
+      </c>
+      <c r="G37" s="1">
+        <v>72</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5074</v>
+      </c>
+      <c r="I37">
+        <v>0.34</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="L37" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="5:22">
+      <c r="E38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="1">
+        <v>213</v>
+      </c>
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>479</v>
+      </c>
+      <c r="I38">
+        <v>4.66</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="M38" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="5:22">
+      <c r="E39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="1">
+        <v>871</v>
+      </c>
+      <c r="G39" s="1">
+        <v>489</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3278</v>
+      </c>
+      <c r="I39">
+        <v>33.22</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K39" s="1">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.02</v>
+      </c>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="5:22">
+      <c r="E40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10079</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8921</v>
+      </c>
+      <c r="H40" s="1">
+        <v>63109</v>
+      </c>
+      <c r="I40">
+        <v>83.14</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="K40" s="1">
+        <v>83.14</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5.4210000000000003</v>
+      </c>
+      <c r="M40" s="1">
+        <v>83.14</v>
+      </c>
+      <c r="N40">
+        <v>2.41</v>
+      </c>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="5:22">
+      <c r="E41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41">
+        <f>SUM(J7:J40)</f>
+        <v>309.61400000000009</v>
+      </c>
+      <c r="L41">
+        <f>SUM(L7:L40)</f>
+        <v>1575.3939999999998</v>
+      </c>
+      <c r="N41">
+        <f>SUM(N7:N40)</f>
+        <v>1761.6800000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J94"/>
   <sheetViews>
@@ -5628,20 +6929,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
